--- a/raw/city data/כלל_הארץ_ומועצות_אזוריות_02_05_שעה_08_00_לפרסום.xlsx
+++ b/raw/city data/כלל_הארץ_ומועצות_אזוריות_02_05_שעה_08_00_לפרסום.xlsx
@@ -1,24 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\גידי ושלומית\קורונה\דוחות BI\02.05.20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idandardikman/projects/israel-covid19-data/raw/city data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BD2A31-97B1-284C-A643-CA41347D08A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7080" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="כלל הארץ לפרסום" sheetId="1" r:id="rId1"/>
     <sheet name="מועצות אזוריות לפרסום (2)" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'כלל הארץ לפרסום'!$A$5:$H$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'מועצות אזוריות לפרסום (2)'!$A$5:$H$54</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -795,17 +808,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -813,7 +826,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -953,11 +966,48 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
@@ -976,43 +1026,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1294,17 +1307,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:I3"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
@@ -1315,5049 +1328,5054 @@
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="E1" s="4" t="s">
+    <row r="1" spans="1:9" ht="19" thickBot="1">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="E1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" ht="62.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" ht="65" thickBot="1">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
+    <row r="3" spans="1:9" ht="19" thickBot="1">
+      <c r="A3" s="6">
         <v>390022</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="7">
         <v>16140</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>9388</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="8">
         <v>922847</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="8">
         <v>43356</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="8">
         <v>1277</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="8">
         <v>673</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="9">
         <v>65.449635746770596</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" ht="62.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+    <row r="4" spans="1:9" ht="16" thickBot="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="65" thickBot="1">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="12">
         <v>12435</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="12">
         <v>4050</v>
       </c>
       <c r="D6">
         <v>147</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="12">
         <v>37</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="13">
         <v>6.8493150684931503E-3</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="12">
         <v>884.59991958182547</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="12">
         <v>195298</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="12">
         <v>25441</v>
       </c>
       <c r="D7">
         <v>2846</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="12">
         <v>1617</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="13">
         <v>1.0294639687610933E-2</v>
       </c>
       <c r="G7">
         <v>29</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="12">
         <v>629.29471883992665</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="12">
         <v>16983</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="12">
         <v>897</v>
       </c>
       <c r="D8">
         <v>99</v>
       </c>
-      <c r="E8" s="18">
-        <v>0</v>
-      </c>
-      <c r="F8" s="19">
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
         <v>0.43478260869565216</v>
       </c>
       <c r="G8">
         <v>30</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="12">
         <v>582.93587705352411</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="12">
         <v>46760</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="12">
         <v>4173</v>
       </c>
       <c r="D9">
         <v>385</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="12">
         <v>239</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="13">
         <v>1.0498687664041995E-2</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="12">
         <v>312.23267750213859</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="12">
         <v>8355</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="12">
         <v>1601</v>
       </c>
       <c r="D10">
         <v>34</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="12">
         <v>9</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="13">
         <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="12">
         <v>299.22202274087368</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="12">
         <v>73808</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="12">
         <v>4314</v>
       </c>
       <c r="D11">
         <v>408</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="12">
         <v>238</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="13">
         <v>2.5125628140703519E-2</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="12">
         <v>230.32733579015823</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="12">
         <v>120812</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="12">
         <v>4850</v>
       </c>
       <c r="D12">
         <v>487</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="12">
         <v>212</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="13">
         <v>3.8379530916844352E-2</v>
       </c>
       <c r="G12">
         <v>18</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="12">
         <v>227.62639472900045</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="12">
         <v>59240</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="12">
         <v>2747</v>
       </c>
       <c r="D13">
         <v>285</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="12">
         <v>152</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="13">
         <v>2.5179856115107913E-2</v>
       </c>
       <c r="G13">
         <v>7</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="12">
         <v>224.51046590141794</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="12">
         <v>914559</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="12">
         <v>51835</v>
       </c>
       <c r="D14">
         <v>3552</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="12">
         <v>1813</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="13">
         <v>2.8670721112076455E-2</v>
       </c>
       <c r="G14">
         <v>99</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="12">
         <v>190.14628908577794</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="12">
         <v>36511</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="12">
         <v>1507</v>
       </c>
       <c r="D15">
         <v>95</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="12">
         <v>28</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="13">
         <v>1.0638297872340425E-2</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="12">
         <v>183.50634055490127</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="12">
         <v>8602</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="12">
         <v>571</v>
       </c>
       <c r="D16">
         <v>59</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="12">
         <v>46</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="13">
         <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="12">
         <v>151.12764473378283</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="12">
         <v>14732</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="12">
         <v>2045</v>
       </c>
       <c r="D17">
         <v>43</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="12">
         <v>21</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="13">
         <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="12">
         <v>149.33478142818353</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="12">
         <v>4991</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="12">
         <v>303</v>
       </c>
       <c r="D18">
         <v>26</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="12">
         <v>19</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="13">
         <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="12">
         <v>140.25245441795232</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="12">
         <v>5851</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="12">
         <v>593</v>
       </c>
       <c r="D19">
         <v>15</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="12">
         <v>7</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="13">
         <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="12">
         <v>136.72876431379251</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="12">
         <v>10676</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="12">
         <v>1017</v>
       </c>
       <c r="D20">
         <v>64</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="12">
         <v>50</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="13">
         <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="12">
         <v>131.13525665043088</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="12">
         <v>18510</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="12">
         <v>856</v>
       </c>
       <c r="D21">
         <v>52</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="12">
         <v>28</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="13">
         <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="12">
         <v>129.65964343598054</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="12">
         <v>34843</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="12">
         <v>2481</v>
       </c>
       <c r="D22">
         <v>141</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="12">
         <v>96</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="13">
         <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="12">
         <v>129.15076198949572</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="12">
         <v>44353</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="12">
         <v>3256</v>
       </c>
       <c r="D23">
         <v>166</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="12">
         <v>109</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="13">
         <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="12">
         <v>128.51441841589067</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="12">
         <v>11841</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="12">
         <v>475</v>
       </c>
       <c r="D24">
         <v>40</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="12">
         <v>25</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="13">
         <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="12">
         <v>126.67848999239929</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="12">
         <v>8737</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="12">
         <v>325</v>
       </c>
       <c r="D25">
         <v>16</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="12">
         <v>5</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="13">
         <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="12">
         <v>125.90133913242532</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="12">
         <v>6724</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="12">
         <v>407</v>
       </c>
       <c r="D26">
         <v>44</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="12">
         <v>36</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="13">
         <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="12">
         <v>118.97679952409281</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="12">
         <v>7373</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="12">
         <v>236</v>
       </c>
       <c r="D27">
         <v>15</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="12">
         <v>7</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="13">
         <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="12">
         <v>108.50400108504</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="12">
         <v>5713</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="12">
         <v>669</v>
       </c>
       <c r="D28">
         <v>39</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="12">
         <v>33</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="13">
         <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="12">
         <v>105.0236303168213</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="12">
         <v>17465</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="12">
         <v>658</v>
       </c>
       <c r="D29">
         <v>18</v>
       </c>
-      <c r="E29" s="18">
-        <v>0</v>
-      </c>
-      <c r="F29" s="19">
+      <c r="E29" s="12">
+        <v>0</v>
+      </c>
+      <c r="F29" s="13">
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="12">
         <v>103.06326939593473</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="12">
         <v>18930</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="12">
         <v>989</v>
       </c>
       <c r="D30">
         <v>46</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="12">
         <v>27</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="13">
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="12">
         <v>100.36978341257264</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="12">
         <v>10414</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="12">
         <v>1278</v>
       </c>
       <c r="D31">
         <v>32</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="12">
         <v>22</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="13">
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="12">
         <v>96.024582293067027</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="12">
         <v>15275</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="12">
         <v>1654</v>
       </c>
       <c r="D32">
         <v>17</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="12">
         <v>3</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="13">
         <v>0.13333333333333333</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="12">
         <v>91.653027823240592</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="12">
         <v>43144</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="12">
         <v>1691</v>
       </c>
       <c r="D33">
         <v>49</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="12">
         <v>10</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="13">
         <v>4.2553191489361701E-2</v>
       </c>
       <c r="G33">
         <v>2</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="12">
         <v>90.394956424995371</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="12">
         <v>55324</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="12">
         <v>2647</v>
       </c>
       <c r="D34">
         <v>79</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="12">
         <v>31</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="13">
         <v>1.282051282051282E-2</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="12">
         <v>86.761622442339672</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="12">
         <v>73979</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="12">
         <v>4493</v>
       </c>
       <c r="D35">
         <v>139</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="12">
         <v>86</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="13">
         <v>1.4598540145985401E-2</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="12">
         <v>71.641952445964392</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="12">
         <v>13263</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="12">
         <v>887</v>
       </c>
       <c r="D36">
         <v>31</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="12">
         <v>22</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="13">
         <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="12">
         <v>67.857950689889165</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="12">
         <v>11819</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="12">
         <v>613</v>
       </c>
       <c r="D37">
         <v>32</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="12">
         <v>24</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="13">
         <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="12">
         <v>67.68762162619511</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="12">
         <v>22449</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="12">
         <v>1019</v>
       </c>
       <c r="D38">
         <v>16</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="12">
         <v>2</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="13">
         <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H38" s="12">
         <v>62.363579669473026</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="12">
         <v>24633</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="12">
         <v>1801</v>
       </c>
       <c r="D39">
         <v>54</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="12">
         <v>39</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="13">
         <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="12">
         <v>60.893922786505904</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="12">
         <v>64649</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="12">
         <v>2051</v>
       </c>
       <c r="D40">
         <v>57</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="12">
         <v>18</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="13">
         <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="12">
         <v>60.325759099135333</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="12">
         <v>30185</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="12">
         <v>1176</v>
       </c>
       <c r="D41">
         <v>45</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="12">
         <v>27</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="13">
         <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="12">
         <v>59.632267682623819</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="12">
         <v>35671</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="12">
         <v>1388</v>
       </c>
       <c r="D42">
         <v>70</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="12">
         <v>49</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="13">
         <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="12">
         <v>58.871352078719411</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="12">
         <v>20041</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="12">
         <v>953</v>
       </c>
       <c r="D43">
         <v>35</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="12">
         <v>24</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="13">
         <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="12">
         <v>54.887480664637486</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="12">
         <v>23691</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="12">
         <v>843</v>
       </c>
       <c r="D44">
         <v>55</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="12">
         <v>42</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="13">
         <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="12">
         <v>54.873158583428314</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="12">
         <v>139032</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="12">
         <v>6439</v>
       </c>
       <c r="D45">
         <v>263</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="12">
         <v>189</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="13">
         <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H45" s="12">
         <v>53.225156798434895</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="12">
         <v>24538</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="12">
         <v>1052</v>
       </c>
       <c r="D46">
         <v>41</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="12">
         <v>28</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="13">
         <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="12">
         <v>52.979052897546666</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="12">
         <v>130523</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="12">
         <v>5267</v>
       </c>
       <c r="D47">
         <v>171</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="12">
         <v>104</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="13">
         <v>1.1834319526627219E-2</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="12">
         <v>51.331949158385882</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="12">
         <v>225073</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="12">
         <v>7909</v>
       </c>
       <c r="D48">
         <v>283</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="12">
         <v>170</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="13">
         <v>7.1174377224199285E-3</v>
       </c>
       <c r="G48">
         <v>2</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="12">
         <v>50.205933186121833</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="12">
         <v>26058</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="12">
         <v>1602</v>
       </c>
       <c r="D49">
         <v>101</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="12">
         <v>88</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="13">
         <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H49" s="12">
         <v>49.888709801212677</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="12">
         <v>143370</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="12">
         <v>7594</v>
       </c>
       <c r="D50">
         <v>191</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="12">
         <v>120</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="13">
         <v>2.6881720430107527E-2</v>
       </c>
       <c r="G50">
         <v>5</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H50" s="12">
         <v>49.522215247262331</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B51" s="12">
         <v>22341</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="12">
         <v>707</v>
       </c>
       <c r="D51">
         <v>37</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="12">
         <v>26</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="13">
         <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H51" s="12">
         <v>49.236829148202858</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="12">
         <v>29104</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="12">
         <v>1483</v>
       </c>
       <c r="D52">
         <v>79</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="12">
         <v>65</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="13">
         <v>0</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H52" s="12">
         <v>48.103353490929081</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="12">
         <v>75038</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="12">
         <v>2450</v>
       </c>
       <c r="D53">
         <v>88</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="12">
         <v>52</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="13">
         <v>1.1494252873563218E-2</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H53" s="12">
         <v>47.975692315893284</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="12">
         <v>53965</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="12">
         <v>2351</v>
       </c>
       <c r="D54">
         <v>51</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="12">
         <v>26</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="13">
         <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H54" s="12">
         <v>46.326322616510701</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="18">
+      <c r="B55" s="12">
         <v>37112</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="12">
         <v>1655</v>
       </c>
       <c r="D55">
         <v>52</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="12">
         <v>35</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="13">
         <v>0</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H55" s="12">
         <v>45.807286053028669</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="18">
+      <c r="B56" s="12">
         <v>37469</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="12">
         <v>2044</v>
       </c>
       <c r="D56">
         <v>52</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="12">
         <v>35</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56" s="13">
         <v>0</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H56" s="12">
         <v>45.370839894312631</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="18">
+      <c r="B57" s="12">
         <v>46596</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C57" s="12">
         <v>1791</v>
       </c>
       <c r="D57">
         <v>52</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="12">
         <v>32</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F57" s="13">
         <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57" s="18">
+      <c r="H57" s="12">
         <v>42.922139239419693</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="18">
+      <c r="B58" s="12">
         <v>23517</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="12">
         <v>1063</v>
       </c>
       <c r="D58">
         <v>17</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E58" s="12">
         <v>7</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="13">
         <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H58" s="12">
         <v>42.522430582132074</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="18">
+      <c r="B59" s="12">
         <v>55400</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C59" s="12">
         <v>1685</v>
       </c>
       <c r="D59">
         <v>51</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E59" s="12">
         <v>28</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59" s="13">
         <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H59" s="12">
         <v>41.516245487364621</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="18">
+      <c r="B60" s="12">
         <v>24216</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C60" s="12">
         <v>921</v>
       </c>
       <c r="D60">
         <v>23</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="12">
         <v>14</v>
       </c>
-      <c r="F60" s="19">
+      <c r="F60" s="13">
         <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60" s="18">
+      <c r="H60" s="12">
         <v>37.165510406342911</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="18">
+      <c r="B61" s="12">
         <v>196755</v>
       </c>
-      <c r="C61" s="18">
+      <c r="C61" s="12">
         <v>8528</v>
       </c>
       <c r="D61">
         <v>175</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="12">
         <v>103</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F61" s="13">
         <v>1.7441860465116279E-2</v>
       </c>
       <c r="G61">
         <v>3</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H61" s="12">
         <v>36.593733323168408</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="18">
+      <c r="B62" s="12">
         <v>242478</v>
       </c>
-      <c r="C62" s="18">
+      <c r="C62" s="12">
         <v>9974</v>
       </c>
       <c r="D62">
         <v>283</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="12">
         <v>199</v>
       </c>
-      <c r="F62" s="19">
+      <c r="F62" s="13">
         <v>2.5362318840579712E-2</v>
       </c>
       <c r="G62">
         <v>7</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H62" s="12">
         <v>34.642318065968873</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="18">
+      <c r="B63" s="12">
         <v>11910</v>
       </c>
-      <c r="C63" s="18">
+      <c r="C63" s="12">
         <v>921</v>
       </c>
       <c r="D63">
         <v>23</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="12">
         <v>19</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F63" s="13">
         <v>0</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="H63" s="18">
+      <c r="H63" s="12">
         <v>33.585222502099079</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="18">
+      <c r="B64" s="12">
         <v>450192</v>
       </c>
-      <c r="C64" s="18">
+      <c r="C64" s="12">
         <v>18569</v>
       </c>
       <c r="D64">
         <v>534</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E64" s="12">
         <v>387</v>
       </c>
-      <c r="F64" s="19">
+      <c r="F64" s="13">
         <v>1.876172607879925E-3</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
-      <c r="H64" s="18">
+      <c r="H64" s="12">
         <v>32.652734833137863</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="18">
+      <c r="B65" s="12">
         <v>43811</v>
       </c>
-      <c r="C65" s="18">
+      <c r="C65" s="12">
         <v>1759</v>
       </c>
       <c r="D65">
         <v>33</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E65" s="12">
         <v>19</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F65" s="13">
         <v>3.125E-2</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
-      <c r="H65" s="18">
+      <c r="H65" s="12">
         <v>31.955444979571343</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="18">
+      <c r="B66" s="12">
         <v>50886</v>
       </c>
-      <c r="C66" s="18">
+      <c r="C66" s="12">
         <v>2013</v>
       </c>
       <c r="D66">
         <v>64</v>
       </c>
-      <c r="E66" s="18">
+      <c r="E66" s="12">
         <v>48</v>
       </c>
-      <c r="F66" s="19">
+      <c r="F66" s="13">
         <v>0</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="H66" s="18">
+      <c r="H66" s="12">
         <v>31.442832999253234</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="18">
+      <c r="B67" s="12">
         <v>32089</v>
       </c>
-      <c r="C67" s="18">
+      <c r="C67" s="12">
         <v>1121</v>
       </c>
       <c r="D67">
         <v>17</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="12">
         <v>7</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F67" s="13">
         <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67" s="18">
+      <c r="H67" s="12">
         <v>31.163326996790179</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="18">
+      <c r="B68" s="12">
         <v>26763</v>
       </c>
-      <c r="C68" s="18">
+      <c r="C68" s="12">
         <v>597</v>
       </c>
       <c r="D68">
         <v>17</v>
       </c>
-      <c r="E68" s="18">
+      <c r="E68" s="12">
         <v>9</v>
       </c>
-      <c r="F68" s="19">
+      <c r="F68" s="13">
         <v>0</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68" s="18">
+      <c r="H68" s="12">
         <v>29.89201509546762</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="18">
+      <c r="B69" s="12">
         <v>20831</v>
       </c>
-      <c r="C69" s="18">
+      <c r="C69" s="12">
         <v>552</v>
       </c>
       <c r="D69">
         <v>15</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="12">
         <v>9</v>
       </c>
-      <c r="F69" s="19">
+      <c r="F69" s="13">
         <v>0</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="H69" s="18">
+      <c r="H69" s="12">
         <v>28.803225961307668</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="18">
+      <c r="B70" s="12">
         <v>87108</v>
       </c>
-      <c r="C70" s="18">
+      <c r="C70" s="12">
         <v>3783</v>
       </c>
       <c r="D70">
         <v>119</v>
       </c>
-      <c r="E70" s="18">
+      <c r="E70" s="12">
         <v>94</v>
       </c>
-      <c r="F70" s="19">
+      <c r="F70" s="13">
         <v>0</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70" s="18">
+      <c r="H70" s="12">
         <v>28.700004592000738</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="18">
+      <c r="B71" s="12">
         <v>90900</v>
       </c>
-      <c r="C71" s="18">
+      <c r="C71" s="12">
         <v>3556</v>
       </c>
       <c r="D71">
         <v>102</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="12">
         <v>76</v>
       </c>
-      <c r="F71" s="19">
+      <c r="F71" s="13">
         <v>0</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71" s="18">
+      <c r="H71" s="12">
         <v>28.602860286028601</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>79</v>
       </c>
-      <c r="B72" s="18">
+      <c r="B72" s="12">
         <v>185741</v>
       </c>
-      <c r="C72" s="18">
+      <c r="C72" s="12">
         <v>6881</v>
       </c>
       <c r="D72">
         <v>177</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E72" s="12">
         <v>125</v>
       </c>
-      <c r="F72" s="19">
+      <c r="F72" s="13">
         <v>0</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72" s="18">
+      <c r="H72" s="12">
         <v>27.995972886977029</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="18">
+      <c r="B73" s="12">
         <v>50872</v>
       </c>
-      <c r="C73" s="18">
+      <c r="C73" s="12">
         <v>1969</v>
       </c>
       <c r="D73">
         <v>28</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E73" s="12">
         <v>14</v>
       </c>
-      <c r="F73" s="19">
+      <c r="F73" s="13">
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
-      <c r="H73" s="18">
+      <c r="H73" s="12">
         <v>27.520050322377735</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="18">
+      <c r="B74" s="12">
         <v>25891</v>
       </c>
-      <c r="C74" s="18">
+      <c r="C74" s="12">
         <v>928</v>
       </c>
       <c r="D74">
         <v>31</v>
       </c>
-      <c r="E74" s="18">
+      <c r="E74" s="12">
         <v>24</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F74" s="13">
         <v>0</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="H74" s="18">
+      <c r="H74" s="12">
         <v>27.036421922675832</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="18">
+      <c r="B75" s="12">
         <v>39556</v>
       </c>
-      <c r="C75" s="18">
+      <c r="C75" s="12">
         <v>1460</v>
       </c>
       <c r="D75">
         <v>29</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E75" s="12">
         <v>19</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F75" s="13">
         <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="H75" s="18">
+      <c r="H75" s="12">
         <v>25.280614824552533</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="18">
+      <c r="B76" s="12">
         <v>44896</v>
       </c>
-      <c r="C76" s="18">
+      <c r="C76" s="12">
         <v>1727</v>
       </c>
       <c r="D76">
         <v>44</v>
       </c>
-      <c r="E76" s="18">
+      <c r="E76" s="12">
         <v>33</v>
       </c>
-      <c r="F76" s="19">
+      <c r="F76" s="13">
         <v>0</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76" s="18">
+      <c r="H76" s="12">
         <v>24.501069137562368</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="18">
+      <c r="B77" s="12">
         <v>55123</v>
       </c>
-      <c r="C77" s="18">
+      <c r="C77" s="12">
         <v>2164</v>
       </c>
       <c r="D77">
         <v>41</v>
       </c>
-      <c r="E77" s="18">
+      <c r="E77" s="12">
         <v>28</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F77" s="13">
         <v>0</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="H77" s="18">
+      <c r="H77" s="12">
         <v>23.583622081526766</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>85</v>
       </c>
-      <c r="B78" s="18">
+      <c r="B78" s="12">
         <v>21301</v>
       </c>
-      <c r="C78" s="18">
+      <c r="C78" s="12">
         <v>623</v>
       </c>
       <c r="D78">
         <v>16</v>
       </c>
-      <c r="E78" s="18">
+      <c r="E78" s="12">
         <v>11</v>
       </c>
-      <c r="F78" s="19">
+      <c r="F78" s="13">
         <v>0</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
-      <c r="H78" s="18">
+      <c r="H78" s="12">
         <v>23.473076381390545</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>86</v>
       </c>
-      <c r="B79" s="18">
+      <c r="B79" s="12">
         <v>22152</v>
       </c>
-      <c r="C79" s="18">
+      <c r="C79" s="12">
         <v>603</v>
       </c>
       <c r="D79">
         <v>15</v>
       </c>
-      <c r="E79" s="18">
+      <c r="E79" s="12">
         <v>10</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F79" s="13">
         <v>0</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
-      <c r="H79" s="18">
+      <c r="H79" s="12">
         <v>22.571325388226796</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="18">
+      <c r="B80" s="12">
         <v>22243</v>
       </c>
-      <c r="C80" s="18">
+      <c r="C80" s="12">
         <v>596</v>
       </c>
       <c r="D80">
         <v>18</v>
       </c>
-      <c r="E80" s="18">
+      <c r="E80" s="12">
         <v>13</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F80" s="13">
         <v>0</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="H80" s="18">
+      <c r="H80" s="12">
         <v>22.478982151688172</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>88</v>
       </c>
-      <c r="B81" s="18">
+      <c r="B81" s="12">
         <v>40622</v>
       </c>
-      <c r="C81" s="18">
+      <c r="C81" s="12">
         <v>1154</v>
       </c>
       <c r="D81">
         <v>18</v>
       </c>
-      <c r="E81" s="18">
+      <c r="E81" s="12">
         <v>9</v>
       </c>
-      <c r="F81" s="19">
+      <c r="F81" s="13">
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="G81">
         <v>1</v>
       </c>
-      <c r="H81" s="18">
+      <c r="H81" s="12">
         <v>22.155482250996997</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>89</v>
       </c>
-      <c r="B82" s="18">
+      <c r="B82" s="12">
         <v>22711</v>
       </c>
-      <c r="C82" s="18">
+      <c r="C82" s="12">
         <v>526</v>
       </c>
       <c r="D82">
         <v>17</v>
       </c>
-      <c r="E82" s="18">
+      <c r="E82" s="12">
         <v>12</v>
       </c>
-      <c r="F82" s="19">
+      <c r="F82" s="13">
         <v>0</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82" s="18">
+      <c r="H82" s="12">
         <v>22.015763286513142</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>90</v>
       </c>
-      <c r="B83" s="18">
+      <c r="B83" s="12">
         <v>213971</v>
       </c>
-      <c r="C83" s="18">
+      <c r="C83" s="12">
         <v>6314</v>
       </c>
       <c r="D83">
         <v>178</v>
       </c>
-      <c r="E83" s="18">
+      <c r="E83" s="12">
         <v>131</v>
       </c>
-      <c r="F83" s="19">
+      <c r="F83" s="13">
         <v>5.6497175141242938E-3</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
-      <c r="H83" s="18">
+      <c r="H83" s="12">
         <v>21.965593468273738</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>91</v>
       </c>
-      <c r="B84" s="18">
+      <c r="B84" s="12">
         <v>45714</v>
       </c>
-      <c r="C84" s="18">
+      <c r="C84" s="12">
         <v>1437</v>
       </c>
       <c r="D84">
         <v>23</v>
       </c>
-      <c r="E84" s="18">
+      <c r="E84" s="12">
         <v>13</v>
       </c>
-      <c r="F84" s="19">
+      <c r="F84" s="13">
         <v>0.21052631578947367</v>
       </c>
       <c r="G84">
         <v>4</v>
       </c>
-      <c r="H84" s="18">
+      <c r="H84" s="12">
         <v>21.875136719604498</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>92</v>
       </c>
-      <c r="B85" s="18">
+      <c r="B85" s="12">
         <v>75246</v>
       </c>
-      <c r="C85" s="18">
+      <c r="C85" s="12">
         <v>2320</v>
       </c>
       <c r="D85">
         <v>58</v>
       </c>
-      <c r="E85" s="18">
+      <c r="E85" s="12">
         <v>42</v>
       </c>
-      <c r="F85" s="19">
+      <c r="F85" s="13">
         <v>1.7543859649122806E-2</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
-      <c r="H85" s="18">
+      <c r="H85" s="12">
         <v>21.26358876219334</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>93</v>
       </c>
-      <c r="B86" s="18">
+      <c r="B86" s="12">
         <v>241010</v>
       </c>
-      <c r="C86" s="18">
+      <c r="C86" s="12">
         <v>8620</v>
       </c>
       <c r="D86">
         <v>219</v>
       </c>
-      <c r="E86" s="18">
+      <c r="E86" s="12">
         <v>168</v>
       </c>
-      <c r="F86" s="19">
+      <c r="F86" s="13">
         <v>9.2165898617511521E-3</v>
       </c>
       <c r="G86">
         <v>2</v>
       </c>
-      <c r="H86" s="18">
+      <c r="H86" s="12">
         <v>21.160947678519562</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="18">
+      <c r="B87" s="12">
         <v>272584</v>
       </c>
-      <c r="C87" s="18">
+      <c r="C87" s="12">
         <v>9013</v>
       </c>
       <c r="D87">
         <v>166</v>
       </c>
-      <c r="E87" s="18">
+      <c r="E87" s="12">
         <v>109</v>
       </c>
-      <c r="F87" s="19">
+      <c r="F87" s="13">
         <v>1.2195121951219513E-2</v>
       </c>
       <c r="G87">
         <v>2</v>
       </c>
-      <c r="H87" s="18">
+      <c r="H87" s="12">
         <v>20.910985237578142</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="18">
+      <c r="B88" s="12">
         <v>33792</v>
       </c>
-      <c r="C88" s="18">
+      <c r="C88" s="12">
         <v>1147</v>
       </c>
       <c r="D88">
         <v>21</v>
       </c>
-      <c r="E88" s="18">
+      <c r="E88" s="12">
         <v>14</v>
       </c>
-      <c r="F88" s="19">
+      <c r="F88" s="13">
         <v>0</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
-      <c r="H88" s="18">
+      <c r="H88" s="12">
         <v>20.714962121212121</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="18">
+      <c r="B89" s="12">
         <v>29035</v>
       </c>
-      <c r="C89" s="18">
+      <c r="C89" s="12">
         <v>1193</v>
       </c>
       <c r="D89">
         <v>20</v>
       </c>
-      <c r="E89" s="18">
+      <c r="E89" s="12">
         <v>14</v>
       </c>
-      <c r="F89" s="19">
+      <c r="F89" s="13">
         <v>0</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="H89" s="18">
+      <c r="H89" s="12">
         <v>20.664714999138972</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="18">
+      <c r="B90" s="12">
         <v>97412</v>
       </c>
-      <c r="C90" s="18">
+      <c r="C90" s="12">
         <v>3253</v>
       </c>
       <c r="D90">
         <v>72</v>
       </c>
-      <c r="E90" s="18">
+      <c r="E90" s="12">
         <v>52</v>
       </c>
-      <c r="F90" s="19">
+      <c r="F90" s="13">
         <v>0</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
-      <c r="H90" s="18">
+      <c r="H90" s="12">
         <v>20.531351373547409</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>98</v>
       </c>
-      <c r="B91" s="18">
+      <c r="B91" s="12">
         <v>45555</v>
       </c>
-      <c r="C91" s="18">
+      <c r="C91" s="12">
         <v>1521</v>
       </c>
       <c r="D91">
         <v>38</v>
       </c>
-      <c r="E91" s="18">
+      <c r="E91" s="12">
         <v>29</v>
       </c>
-      <c r="F91" s="19">
+      <c r="F91" s="13">
         <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="H91" s="18">
+      <c r="H91" s="12">
         <v>19.75633849193283</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>99</v>
       </c>
-      <c r="B92" s="18">
+      <c r="B92" s="12">
         <v>58750</v>
       </c>
-      <c r="C92" s="18">
+      <c r="C92" s="12">
         <v>2790</v>
       </c>
       <c r="D92">
         <v>41</v>
       </c>
-      <c r="E92" s="18">
+      <c r="E92" s="12">
         <v>30</v>
       </c>
-      <c r="F92" s="19">
+      <c r="F92" s="13">
         <v>0</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
-      <c r="H92" s="18">
+      <c r="H92" s="12">
         <v>18.723404255319149</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>100</v>
       </c>
-      <c r="B93" s="18">
+      <c r="B93" s="12">
         <v>35377</v>
       </c>
-      <c r="C93" s="18">
+      <c r="C93" s="12">
         <v>1060</v>
       </c>
       <c r="D93">
         <v>28</v>
       </c>
-      <c r="E93" s="18">
+      <c r="E93" s="12">
         <v>22</v>
       </c>
-      <c r="F93" s="19">
+      <c r="F93" s="13">
         <v>0</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
-      <c r="H93" s="18">
+      <c r="H93" s="12">
         <v>16.96017186307488</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>101</v>
       </c>
-      <c r="B94" s="18">
+      <c r="B94" s="12">
         <v>137178</v>
       </c>
-      <c r="C94" s="18">
+      <c r="C94" s="12">
         <v>5059</v>
       </c>
       <c r="D94">
         <v>118</v>
       </c>
-      <c r="E94" s="18">
+      <c r="E94" s="12">
         <v>95</v>
       </c>
-      <c r="F94" s="19">
+      <c r="F94" s="13">
         <v>0</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="H94" s="18">
+      <c r="H94" s="12">
         <v>16.766536908250593</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>102</v>
       </c>
-      <c r="B95" s="18">
+      <c r="B95" s="12">
         <v>39262</v>
       </c>
-      <c r="C95" s="18">
+      <c r="C95" s="12">
         <v>1410</v>
       </c>
       <c r="D95">
         <v>17</v>
       </c>
-      <c r="E95" s="18">
+      <c r="E95" s="12">
         <v>11</v>
       </c>
-      <c r="F95" s="19">
+      <c r="F95" s="13">
         <v>0</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="H95" s="18">
+      <c r="H95" s="12">
         <v>15.281952014670674</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>103</v>
       </c>
-      <c r="B96" s="18">
+      <c r="B96" s="12">
         <v>59171</v>
       </c>
-      <c r="C96" s="18">
+      <c r="C96" s="12">
         <v>1606</v>
       </c>
       <c r="D96">
         <v>42</v>
       </c>
-      <c r="E96" s="18">
+      <c r="E96" s="12">
         <v>33</v>
       </c>
-      <c r="F96" s="19">
+      <c r="F96" s="13">
         <v>2.4390243902439025E-2</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
-      <c r="H96" s="18">
+      <c r="H96" s="12">
         <v>15.210153622551587</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>104</v>
       </c>
-      <c r="B97" s="18">
+      <c r="B97" s="12">
         <v>78252</v>
       </c>
-      <c r="C97" s="18">
+      <c r="C97" s="12">
         <v>1329</v>
       </c>
       <c r="D97">
         <v>20</v>
       </c>
-      <c r="E97" s="18">
+      <c r="E97" s="12">
         <v>9</v>
       </c>
-      <c r="F97" s="19">
+      <c r="F97" s="13">
         <v>0</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
-      <c r="H97" s="18">
+      <c r="H97" s="12">
         <v>14.057148699074784</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>105</v>
       </c>
-      <c r="B98" s="18">
+      <c r="B98" s="12">
         <v>22410</v>
       </c>
-      <c r="C98" s="18">
+      <c r="C98" s="12">
         <v>797</v>
       </c>
       <c r="D98">
         <v>26</v>
       </c>
-      <c r="E98" s="18">
+      <c r="E98" s="12">
         <v>23</v>
       </c>
-      <c r="F98" s="19">
+      <c r="F98" s="13">
         <v>0</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
-      <c r="H98" s="18">
+      <c r="H98" s="12">
         <v>13.386880856760376</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>106</v>
       </c>
-      <c r="B99" s="18">
+      <c r="B99" s="12">
         <v>94104</v>
       </c>
-      <c r="C99" s="18">
+      <c r="C99" s="12">
         <v>3274</v>
       </c>
       <c r="D99">
         <v>51</v>
       </c>
-      <c r="E99" s="18">
+      <c r="E99" s="12">
         <v>39</v>
       </c>
-      <c r="F99" s="19">
+      <c r="F99" s="13">
         <v>0</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
-      <c r="H99" s="18">
+      <c r="H99" s="12">
         <v>12.751849018107626</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>107</v>
       </c>
-      <c r="B100" s="18">
+      <c r="B100" s="12">
         <v>57108</v>
       </c>
-      <c r="C100" s="18">
+      <c r="C100" s="12">
         <v>1524</v>
       </c>
       <c r="D100">
         <v>25</v>
       </c>
-      <c r="E100" s="18">
+      <c r="E100" s="12">
         <v>19</v>
       </c>
-      <c r="F100" s="19">
+      <c r="F100" s="13">
         <v>0</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
-      <c r="H100" s="18">
+      <c r="H100" s="12">
         <v>10.506408909434755</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>108</v>
       </c>
-      <c r="B101" s="18">
+      <c r="B101" s="12">
         <v>23093</v>
       </c>
-      <c r="C101" s="18">
+      <c r="C101" s="12">
         <v>1171</v>
       </c>
       <c r="D101">
         <v>15</v>
       </c>
-      <c r="E101" s="18">
+      <c r="E101" s="12">
         <v>13</v>
       </c>
-      <c r="F101" s="19">
+      <c r="F101" s="13">
         <v>0</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
-      <c r="H101" s="18">
+      <c r="H101" s="12">
         <v>8.6606330922790455</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>109</v>
       </c>
-      <c r="B102" s="18">
+      <c r="B102" s="12">
         <v>56568</v>
       </c>
-      <c r="C102" s="18">
+      <c r="C102" s="12">
         <v>1238</v>
       </c>
       <c r="D102">
         <v>23</v>
       </c>
-      <c r="E102" s="18">
+      <c r="E102" s="12">
         <v>19</v>
       </c>
-      <c r="F102" s="19">
+      <c r="F102" s="13">
         <v>0</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="H102" s="18">
+      <c r="H102" s="12">
         <v>7.0711356243812746</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>110</v>
       </c>
-      <c r="B103" s="18">
+      <c r="B103" s="12">
         <v>42870</v>
       </c>
-      <c r="C103" s="18">
+      <c r="C103" s="12">
         <v>2379</v>
       </c>
       <c r="D103" t="s">
         <v>111</v>
       </c>
-      <c r="E103" s="18">
+      <c r="E103" s="12">
         <v>6</v>
       </c>
-      <c r="F103" s="19">
+      <c r="F103" s="13">
         <v>0</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
-      <c r="H103" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H103" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>112</v>
       </c>
-      <c r="B104" s="18">
+      <c r="B104" s="12">
         <v>40666</v>
       </c>
-      <c r="C104" s="18">
+      <c r="C104" s="12">
         <v>994</v>
       </c>
       <c r="D104" t="s">
         <v>111</v>
       </c>
-      <c r="E104" s="18">
+      <c r="E104" s="12">
         <v>4</v>
       </c>
-      <c r="F104" s="19">
+      <c r="F104" s="13">
         <v>0</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
-      <c r="H104" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H104" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>113</v>
       </c>
-      <c r="B105" s="18">
+      <c r="B105" s="12">
         <v>26184</v>
       </c>
-      <c r="C105" s="18">
+      <c r="C105" s="12">
         <v>849</v>
       </c>
       <c r="D105" t="s">
         <v>111</v>
       </c>
-      <c r="E105" s="18">
+      <c r="E105" s="12">
         <v>3</v>
       </c>
-      <c r="F105" s="19">
+      <c r="F105" s="13">
         <v>0</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="H105" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H105" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>114</v>
       </c>
-      <c r="B106" s="18">
+      <c r="B106" s="12">
         <v>25876</v>
       </c>
-      <c r="C106" s="18">
+      <c r="C106" s="12">
         <v>605</v>
       </c>
       <c r="D106" t="s">
         <v>111</v>
       </c>
-      <c r="E106" s="18">
+      <c r="E106" s="12">
         <v>4</v>
       </c>
-      <c r="F106" s="19">
+      <c r="F106" s="13">
         <v>0</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="H106" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H106" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>115</v>
       </c>
-      <c r="B107" s="18">
+      <c r="B107" s="12">
         <v>22740</v>
       </c>
-      <c r="C107" s="18">
+      <c r="C107" s="12">
         <v>891</v>
       </c>
       <c r="D107" t="s">
         <v>111</v>
       </c>
-      <c r="E107" s="18">
+      <c r="E107" s="12">
         <v>1</v>
       </c>
-      <c r="F107" s="19">
+      <c r="F107" s="13">
         <v>0</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="H107" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H107" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>116</v>
       </c>
-      <c r="B108" s="18">
+      <c r="B108" s="12">
         <v>22364</v>
       </c>
-      <c r="C108" s="18">
+      <c r="C108" s="12">
         <v>569</v>
       </c>
       <c r="D108" t="s">
         <v>111</v>
       </c>
-      <c r="E108" s="18">
+      <c r="E108" s="12">
         <v>7</v>
       </c>
-      <c r="F108" s="19">
+      <c r="F108" s="13">
         <v>0</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
-      <c r="H108" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H108" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>117</v>
       </c>
-      <c r="B109" s="18">
+      <c r="B109" s="12">
         <v>22261</v>
       </c>
-      <c r="C109" s="18">
+      <c r="C109" s="12">
         <v>742</v>
       </c>
       <c r="D109" t="s">
         <v>111</v>
       </c>
-      <c r="E109" s="18">
+      <c r="E109" s="12">
         <v>10</v>
       </c>
-      <c r="F109" s="19">
+      <c r="F109" s="13">
         <v>0</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
-      <c r="H109" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H109" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>118</v>
       </c>
-      <c r="B110" s="18">
+      <c r="B110" s="12">
         <v>22032</v>
       </c>
-      <c r="C110" s="18">
+      <c r="C110" s="12">
         <v>1218</v>
       </c>
       <c r="D110" t="s">
         <v>111</v>
       </c>
-      <c r="E110" s="18">
+      <c r="E110" s="12">
         <v>3</v>
       </c>
-      <c r="F110" s="19">
+      <c r="F110" s="13">
         <v>0</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="H110" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H110" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>119</v>
       </c>
-      <c r="B111" s="18">
+      <c r="B111" s="12">
         <v>20524</v>
       </c>
-      <c r="C111" s="18">
+      <c r="C111" s="12">
         <v>490</v>
       </c>
       <c r="D111" t="s">
         <v>111</v>
       </c>
-      <c r="E111" s="18">
+      <c r="E111" s="12">
         <v>1</v>
       </c>
-      <c r="F111" s="19">
+      <c r="F111" s="13">
         <v>0</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
-      <c r="H111" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H111" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>120</v>
       </c>
-      <c r="B112" s="18">
+      <c r="B112" s="12">
         <v>19850</v>
       </c>
-      <c r="C112" s="18">
+      <c r="C112" s="12">
         <v>235</v>
       </c>
       <c r="D112" t="s">
         <v>111</v>
       </c>
-      <c r="E112" s="18">
+      <c r="E112" s="12">
         <v>1</v>
       </c>
-      <c r="F112" s="19">
+      <c r="F112" s="13">
         <v>0</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
-      <c r="H112" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H112" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>121</v>
       </c>
-      <c r="B113" s="18">
+      <c r="B113" s="12">
         <v>19667</v>
       </c>
-      <c r="C113" s="18">
+      <c r="C113" s="12">
         <v>812</v>
       </c>
       <c r="D113" t="s">
         <v>111</v>
       </c>
-      <c r="E113" s="18">
+      <c r="E113" s="12">
         <v>2</v>
       </c>
-      <c r="F113" s="19">
+      <c r="F113" s="13">
         <v>0</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
-      <c r="H113" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H113" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>122</v>
       </c>
-      <c r="B114" s="18">
+      <c r="B114" s="12">
         <v>19058</v>
       </c>
-      <c r="C114" s="18">
+      <c r="C114" s="12">
         <v>282</v>
       </c>
       <c r="D114" t="s">
         <v>111</v>
       </c>
-      <c r="E114" s="18">
+      <c r="E114" s="12">
         <v>2</v>
       </c>
-      <c r="F114" s="19">
+      <c r="F114" s="13">
         <v>0</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
-      <c r="H114" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H114" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>123</v>
       </c>
-      <c r="B115" s="18">
+      <c r="B115" s="12">
         <v>19056</v>
       </c>
-      <c r="C115" s="18">
+      <c r="C115" s="12">
         <v>367</v>
       </c>
       <c r="D115" t="s">
         <v>111</v>
       </c>
-      <c r="E115" s="18">
+      <c r="E115" s="12">
         <v>4</v>
       </c>
-      <c r="F115" s="19">
+      <c r="F115" s="13">
         <v>0</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
-      <c r="H115" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H115" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>124</v>
       </c>
-      <c r="B116" s="18">
+      <c r="B116" s="12">
         <v>18893</v>
       </c>
-      <c r="C116" s="18">
+      <c r="C116" s="12">
         <v>386</v>
       </c>
       <c r="D116" t="s">
         <v>111</v>
       </c>
-      <c r="E116" s="18">
+      <c r="E116" s="12">
         <v>2</v>
       </c>
-      <c r="F116" s="19">
+      <c r="F116" s="13">
         <v>0</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
-      <c r="H116" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H116" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>125</v>
       </c>
-      <c r="B117" s="18">
+      <c r="B117" s="12">
         <v>18820</v>
       </c>
-      <c r="C117" s="18">
+      <c r="C117" s="12">
         <v>596</v>
       </c>
       <c r="D117" t="s">
         <v>111</v>
       </c>
-      <c r="E117" s="18">
+      <c r="E117" s="12">
         <v>6</v>
       </c>
-      <c r="F117" s="19">
+      <c r="F117" s="13">
         <v>0.66666666666666663</v>
       </c>
       <c r="G117">
         <v>4</v>
       </c>
-      <c r="H117" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H117" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>126</v>
       </c>
-      <c r="B118" s="18">
+      <c r="B118" s="12">
         <v>18251</v>
       </c>
-      <c r="C118" s="18">
+      <c r="C118" s="12">
         <v>680</v>
       </c>
       <c r="D118" t="s">
         <v>111</v>
       </c>
-      <c r="E118" s="18">
+      <c r="E118" s="12">
         <v>8</v>
       </c>
-      <c r="F118" s="19">
+      <c r="F118" s="13">
         <v>0</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="H118" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H118" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>127</v>
       </c>
-      <c r="B119" s="18">
+      <c r="B119" s="12">
         <v>16957</v>
       </c>
-      <c r="C119" s="18">
+      <c r="C119" s="12">
         <v>350</v>
       </c>
       <c r="D119" t="s">
         <v>111</v>
       </c>
-      <c r="E119" s="18">
+      <c r="E119" s="12">
         <v>7</v>
       </c>
-      <c r="F119" s="19">
+      <c r="F119" s="13">
         <v>0</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
-      <c r="H119" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H119" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>128</v>
       </c>
-      <c r="B120" s="18">
+      <c r="B120" s="12">
         <v>16644</v>
       </c>
-      <c r="C120" s="18">
+      <c r="C120" s="12">
         <v>62</v>
       </c>
       <c r="D120" t="s">
         <v>111</v>
       </c>
-      <c r="E120" s="18">
-        <v>0</v>
-      </c>
-      <c r="F120" s="19">
+      <c r="E120" s="12">
+        <v>0</v>
+      </c>
+      <c r="F120" s="13">
         <v>0</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
-      <c r="H120" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H120" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>129</v>
       </c>
-      <c r="B121" s="18">
+      <c r="B121" s="12">
         <v>15831</v>
       </c>
-      <c r="C121" s="18">
+      <c r="C121" s="12">
         <v>433</v>
       </c>
       <c r="D121" t="s">
         <v>111</v>
       </c>
-      <c r="E121" s="18">
+      <c r="E121" s="12">
         <v>4</v>
       </c>
-      <c r="F121" s="19">
+      <c r="F121" s="13">
         <v>0</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
-      <c r="H121" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H121" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>130</v>
       </c>
-      <c r="B122" s="18">
+      <c r="B122" s="12">
         <v>15418</v>
       </c>
-      <c r="C122" s="18">
+      <c r="C122" s="12">
         <v>907</v>
       </c>
       <c r="D122" t="s">
         <v>111</v>
       </c>
-      <c r="E122" s="18">
+      <c r="E122" s="12">
         <v>1</v>
       </c>
-      <c r="F122" s="19">
+      <c r="F122" s="13">
         <v>0</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
-      <c r="H122" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H122" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>131</v>
       </c>
-      <c r="B123" s="18">
+      <c r="B123" s="12">
         <v>14949</v>
       </c>
-      <c r="C123" s="18">
+      <c r="C123" s="12">
         <v>507</v>
       </c>
       <c r="D123" t="s">
         <v>111</v>
       </c>
-      <c r="E123" s="18">
+      <c r="E123" s="12">
         <v>9</v>
       </c>
-      <c r="F123" s="19">
+      <c r="F123" s="13">
         <v>0</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
-      <c r="H123" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H123" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>132</v>
       </c>
-      <c r="B124" s="18">
+      <c r="B124" s="12">
         <v>14861</v>
       </c>
-      <c r="C124" s="18">
+      <c r="C124" s="12">
         <v>380</v>
       </c>
       <c r="D124" t="s">
         <v>111</v>
       </c>
-      <c r="E124" s="18">
+      <c r="E124" s="12">
         <v>5</v>
       </c>
-      <c r="F124" s="19">
+      <c r="F124" s="13">
         <v>0</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
-      <c r="H124" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H124" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>133</v>
       </c>
-      <c r="B125" s="18">
+      <c r="B125" s="12">
         <v>14695</v>
       </c>
-      <c r="C125" s="18">
+      <c r="C125" s="12">
         <v>283</v>
       </c>
       <c r="D125" t="s">
         <v>111</v>
       </c>
-      <c r="E125" s="18">
-        <v>0</v>
-      </c>
-      <c r="F125" s="19">
+      <c r="E125" s="12">
+        <v>0</v>
+      </c>
+      <c r="F125" s="13">
         <v>0</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
-      <c r="H125" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H125" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>134</v>
       </c>
-      <c r="B126" s="18">
+      <c r="B126" s="12">
         <v>14655</v>
       </c>
-      <c r="C126" s="18">
+      <c r="C126" s="12">
         <v>340</v>
       </c>
       <c r="D126" t="s">
         <v>111</v>
       </c>
-      <c r="E126" s="18">
+      <c r="E126" s="12">
         <v>4</v>
       </c>
-      <c r="F126" s="19">
+      <c r="F126" s="13">
         <v>0</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
-      <c r="H126" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H126" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>135</v>
       </c>
-      <c r="B127" s="18">
+      <c r="B127" s="12">
         <v>14383</v>
       </c>
-      <c r="C127" s="18">
+      <c r="C127" s="12">
         <v>300</v>
       </c>
       <c r="D127" t="s">
         <v>111</v>
       </c>
-      <c r="E127" s="18">
+      <c r="E127" s="12">
         <v>2</v>
       </c>
-      <c r="F127" s="19">
+      <c r="F127" s="13">
         <v>0.5</v>
       </c>
       <c r="G127">
         <v>1</v>
       </c>
-      <c r="H127" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H127" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>136</v>
       </c>
-      <c r="B128" s="18">
+      <c r="B128" s="12">
         <v>13388</v>
       </c>
-      <c r="C128" s="18">
+      <c r="C128" s="12">
         <v>277</v>
       </c>
       <c r="D128" t="s">
         <v>111</v>
       </c>
-      <c r="E128" s="18">
+      <c r="E128" s="12">
         <v>3</v>
       </c>
-      <c r="F128" s="19">
+      <c r="F128" s="13">
         <v>0</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="H128" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H128" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>137</v>
       </c>
-      <c r="B129" s="18">
+      <c r="B129" s="12">
         <v>13167</v>
       </c>
-      <c r="C129" s="18">
+      <c r="C129" s="12">
         <v>524</v>
       </c>
       <c r="D129" t="s">
         <v>111</v>
       </c>
-      <c r="E129" s="18">
+      <c r="E129" s="12">
         <v>6</v>
       </c>
-      <c r="F129" s="19">
+      <c r="F129" s="13">
         <v>0</v>
       </c>
       <c r="G129">
         <v>0</v>
       </c>
-      <c r="H129" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H129" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>138</v>
       </c>
-      <c r="B130" s="18">
+      <c r="B130" s="12">
         <v>13164</v>
       </c>
-      <c r="C130" s="18">
+      <c r="C130" s="12">
         <v>362</v>
       </c>
       <c r="D130" t="s">
         <v>111</v>
       </c>
-      <c r="E130" s="18">
-        <v>0</v>
-      </c>
-      <c r="F130" s="19">
+      <c r="E130" s="12">
+        <v>0</v>
+      </c>
+      <c r="F130" s="13">
         <v>0</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
-      <c r="H130" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H130" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>139</v>
       </c>
-      <c r="B131" s="18">
+      <c r="B131" s="12">
         <v>13133</v>
       </c>
-      <c r="C131" s="18">
+      <c r="C131" s="12">
         <v>490</v>
       </c>
       <c r="D131" t="s">
         <v>111</v>
       </c>
-      <c r="E131" s="18">
+      <c r="E131" s="12">
         <v>3</v>
       </c>
-      <c r="F131" s="19">
+      <c r="F131" s="13">
         <v>0</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
-      <c r="H131" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H131" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>140</v>
       </c>
-      <c r="B132" s="18">
+      <c r="B132" s="12">
         <v>12593</v>
       </c>
-      <c r="C132" s="18">
+      <c r="C132" s="12">
         <v>758</v>
       </c>
       <c r="D132" t="s">
         <v>111</v>
       </c>
-      <c r="E132" s="18">
+      <c r="E132" s="12">
         <v>13</v>
       </c>
-      <c r="F132" s="19">
+      <c r="F132" s="13">
         <v>0</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
-      <c r="H132" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H132" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>141</v>
       </c>
-      <c r="B133" s="18">
+      <c r="B133" s="12">
         <v>12141</v>
       </c>
-      <c r="C133" s="18">
+      <c r="C133" s="12">
         <v>547</v>
       </c>
       <c r="D133" t="s">
         <v>111</v>
       </c>
-      <c r="E133" s="18">
+      <c r="E133" s="12">
         <v>4</v>
       </c>
-      <c r="F133" s="19">
+      <c r="F133" s="13">
         <v>0</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
-      <c r="H133" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H133" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>142</v>
       </c>
-      <c r="B134" s="18">
+      <c r="B134" s="12">
         <v>12102</v>
       </c>
-      <c r="C134" s="18">
+      <c r="C134" s="12">
         <v>783</v>
       </c>
       <c r="D134" t="s">
         <v>111</v>
       </c>
-      <c r="E134" s="18">
+      <c r="E134" s="12">
         <v>3</v>
       </c>
-      <c r="F134" s="19">
+      <c r="F134" s="13">
         <v>0</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
-      <c r="H134" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H134" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>143</v>
       </c>
-      <c r="B135" s="18">
+      <c r="B135" s="12">
         <v>11089</v>
       </c>
-      <c r="C135" s="18">
+      <c r="C135" s="12">
         <v>304</v>
       </c>
       <c r="D135" t="s">
         <v>111</v>
       </c>
-      <c r="E135" s="18">
+      <c r="E135" s="12">
         <v>1</v>
       </c>
-      <c r="F135" s="19">
+      <c r="F135" s="13">
         <v>0</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
-      <c r="H135" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H135" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>144</v>
       </c>
-      <c r="B136" s="18">
+      <c r="B136" s="12">
         <v>10600</v>
       </c>
-      <c r="C136" s="18">
+      <c r="C136" s="12">
         <v>316</v>
       </c>
       <c r="D136" t="s">
         <v>111</v>
       </c>
-      <c r="E136" s="18">
+      <c r="E136" s="12">
         <v>8</v>
       </c>
-      <c r="F136" s="19">
+      <c r="F136" s="13">
         <v>0</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
-      <c r="H136" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H136" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>145</v>
       </c>
-      <c r="B137" s="18">
+      <c r="B137" s="12">
         <v>10577</v>
       </c>
-      <c r="C137" s="18">
+      <c r="C137" s="12">
         <v>576</v>
       </c>
       <c r="D137" t="s">
         <v>111</v>
       </c>
-      <c r="E137" s="18">
+      <c r="E137" s="12">
         <v>3</v>
       </c>
-      <c r="F137" s="19">
+      <c r="F137" s="13">
         <v>0</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
-      <c r="H137" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H137" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>146</v>
       </c>
-      <c r="B138" s="18">
+      <c r="B138" s="12">
         <v>10567</v>
       </c>
-      <c r="C138" s="18">
+      <c r="C138" s="12">
         <v>438</v>
       </c>
       <c r="D138" t="s">
         <v>111</v>
       </c>
-      <c r="E138" s="18">
+      <c r="E138" s="12">
         <v>9</v>
       </c>
-      <c r="F138" s="19">
+      <c r="F138" s="13">
         <v>0</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
-      <c r="H138" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H138" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>147</v>
       </c>
-      <c r="B139" s="18">
+      <c r="B139" s="12">
         <v>10532</v>
       </c>
-      <c r="C139" s="18">
+      <c r="C139" s="12">
         <v>377</v>
       </c>
       <c r="D139" t="s">
         <v>111</v>
       </c>
-      <c r="E139" s="18">
+      <c r="E139" s="12">
         <v>4</v>
       </c>
-      <c r="F139" s="19">
+      <c r="F139" s="13">
         <v>0</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
-      <c r="H139" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H139" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>148</v>
       </c>
-      <c r="B140" s="18">
+      <c r="B140" s="12">
         <v>10126</v>
       </c>
-      <c r="C140" s="18">
+      <c r="C140" s="12">
         <v>253</v>
       </c>
       <c r="D140" t="s">
         <v>111</v>
       </c>
-      <c r="E140" s="18">
+      <c r="E140" s="12">
         <v>4</v>
       </c>
-      <c r="F140" s="19">
+      <c r="F140" s="13">
         <v>0</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
-      <c r="H140" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H140" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>149</v>
       </c>
-      <c r="B141" s="18">
+      <c r="B141" s="12">
         <v>10011</v>
       </c>
-      <c r="C141" s="18">
+      <c r="C141" s="12">
         <v>439</v>
       </c>
       <c r="D141" t="s">
         <v>111</v>
       </c>
-      <c r="E141" s="18">
+      <c r="E141" s="12">
         <v>4</v>
       </c>
-      <c r="F141" s="19">
+      <c r="F141" s="13">
         <v>0</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
-      <c r="H141" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H141" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>150</v>
       </c>
-      <c r="B142" s="18">
+      <c r="B142" s="12">
         <v>9974</v>
       </c>
-      <c r="C142" s="18">
+      <c r="C142" s="12">
         <v>202</v>
       </c>
       <c r="D142" t="s">
         <v>111</v>
       </c>
-      <c r="E142" s="18">
+      <c r="E142" s="12">
         <v>2</v>
       </c>
-      <c r="F142" s="19">
+      <c r="F142" s="13">
         <v>0</v>
       </c>
       <c r="G142">
         <v>0</v>
       </c>
-      <c r="H142" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H142" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>151</v>
       </c>
-      <c r="B143" s="18">
+      <c r="B143" s="12">
         <v>9866</v>
       </c>
-      <c r="C143" s="18">
+      <c r="C143" s="12">
         <v>172</v>
       </c>
       <c r="D143" t="s">
         <v>111</v>
       </c>
-      <c r="E143" s="18">
+      <c r="E143" s="12">
         <v>2</v>
       </c>
-      <c r="F143" s="19">
+      <c r="F143" s="13">
         <v>0</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
-      <c r="H143" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H143" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>152</v>
       </c>
-      <c r="B144" s="18">
+      <c r="B144" s="12">
         <v>9722</v>
       </c>
-      <c r="C144" s="18">
+      <c r="C144" s="12">
         <v>238</v>
       </c>
       <c r="D144" t="s">
         <v>111</v>
       </c>
-      <c r="E144" s="18">
+      <c r="E144" s="12">
         <v>3</v>
       </c>
-      <c r="F144" s="19">
+      <c r="F144" s="13">
         <v>0</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
-      <c r="H144" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H144" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>153</v>
       </c>
-      <c r="B145" s="18">
+      <c r="B145" s="12">
         <v>9143</v>
       </c>
-      <c r="C145" s="18">
+      <c r="C145" s="12">
         <v>404</v>
       </c>
       <c r="D145" t="s">
         <v>111</v>
       </c>
-      <c r="E145" s="18">
+      <c r="E145" s="12">
         <v>7</v>
       </c>
-      <c r="F145" s="19">
+      <c r="F145" s="13">
         <v>0</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
-      <c r="H145" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H145" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>154</v>
       </c>
-      <c r="B146" s="18">
+      <c r="B146" s="12">
         <v>9043</v>
       </c>
-      <c r="C146" s="18">
+      <c r="C146" s="12">
         <v>460</v>
       </c>
       <c r="D146" t="s">
         <v>111</v>
       </c>
-      <c r="E146" s="18">
+      <c r="E146" s="12">
         <v>2</v>
       </c>
-      <c r="F146" s="19">
+      <c r="F146" s="13">
         <v>0</v>
       </c>
       <c r="G146">
         <v>0</v>
       </c>
-      <c r="H146" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H146" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>155</v>
       </c>
-      <c r="B147" s="18">
+      <c r="B147" s="12">
         <v>8822</v>
       </c>
-      <c r="C147" s="18">
+      <c r="C147" s="12">
         <v>286</v>
       </c>
       <c r="D147" t="s">
         <v>111</v>
       </c>
-      <c r="E147" s="18">
+      <c r="E147" s="12">
         <v>3</v>
       </c>
-      <c r="F147" s="19">
+      <c r="F147" s="13">
         <v>0</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
-      <c r="H147" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H147" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>156</v>
       </c>
-      <c r="B148" s="18">
+      <c r="B148" s="12">
         <v>8446</v>
       </c>
-      <c r="C148" s="18">
+      <c r="C148" s="12">
         <v>62</v>
       </c>
       <c r="D148" t="s">
         <v>111</v>
       </c>
-      <c r="E148" s="18">
-        <v>0</v>
-      </c>
-      <c r="F148" s="19">
+      <c r="E148" s="12">
+        <v>0</v>
+      </c>
+      <c r="F148" s="13">
         <v>0</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
-      <c r="H148" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H148" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>157</v>
       </c>
-      <c r="B149" s="18">
+      <c r="B149" s="12">
         <v>8243</v>
       </c>
-      <c r="C149" s="18">
+      <c r="C149" s="12">
         <v>280</v>
       </c>
       <c r="D149" t="s">
         <v>111</v>
       </c>
-      <c r="E149" s="18">
+      <c r="E149" s="12">
         <v>1</v>
       </c>
-      <c r="F149" s="19">
+      <c r="F149" s="13">
         <v>0</v>
       </c>
       <c r="G149">
         <v>0</v>
       </c>
-      <c r="H149" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H149" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>158</v>
       </c>
-      <c r="B150" s="18">
+      <c r="B150" s="12">
         <v>8241</v>
       </c>
-      <c r="C150" s="18">
+      <c r="C150" s="12">
         <v>197</v>
       </c>
       <c r="D150" t="s">
         <v>111</v>
       </c>
-      <c r="E150" s="18">
+      <c r="E150" s="12">
         <v>1</v>
       </c>
-      <c r="F150" s="19">
+      <c r="F150" s="13">
         <v>0</v>
       </c>
       <c r="G150">
         <v>0</v>
       </c>
-      <c r="H150" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H150" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>159</v>
       </c>
-      <c r="B151" s="18">
+      <c r="B151" s="12">
         <v>8016</v>
       </c>
-      <c r="C151" s="18">
+      <c r="C151" s="12">
         <v>324</v>
       </c>
       <c r="D151" t="s">
         <v>111</v>
       </c>
-      <c r="E151" s="18">
+      <c r="E151" s="12">
         <v>6</v>
       </c>
-      <c r="F151" s="19">
+      <c r="F151" s="13">
         <v>0</v>
       </c>
       <c r="G151">
         <v>0</v>
       </c>
-      <c r="H151" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H151" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>160</v>
       </c>
-      <c r="B152" s="18">
+      <c r="B152" s="12">
         <v>7906</v>
       </c>
-      <c r="C152" s="18">
+      <c r="C152" s="12">
         <v>216</v>
       </c>
       <c r="D152" t="s">
         <v>111</v>
       </c>
-      <c r="E152" s="18">
+      <c r="E152" s="12">
         <v>5</v>
       </c>
-      <c r="F152" s="19">
+      <c r="F152" s="13">
         <v>0</v>
       </c>
       <c r="G152">
         <v>0</v>
       </c>
-      <c r="H152" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H152" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>161</v>
       </c>
-      <c r="B153" s="18">
+      <c r="B153" s="12">
         <v>7856</v>
       </c>
-      <c r="C153" s="18">
+      <c r="C153" s="12">
         <v>481</v>
       </c>
       <c r="D153" t="s">
         <v>111</v>
       </c>
-      <c r="E153" s="18">
+      <c r="E153" s="12">
         <v>5</v>
       </c>
-      <c r="F153" s="19">
+      <c r="F153" s="13">
         <v>0</v>
       </c>
       <c r="G153">
         <v>0</v>
       </c>
-      <c r="H153" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H153" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>162</v>
       </c>
-      <c r="B154" s="18">
+      <c r="B154" s="12">
         <v>7833</v>
       </c>
-      <c r="C154" s="18">
+      <c r="C154" s="12">
         <v>132</v>
       </c>
       <c r="D154" t="s">
         <v>111</v>
       </c>
-      <c r="E154" s="18">
+      <c r="E154" s="12">
         <v>2</v>
       </c>
-      <c r="F154" s="19">
+      <c r="F154" s="13">
         <v>0</v>
       </c>
       <c r="G154">
         <v>0</v>
       </c>
-      <c r="H154" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H154" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>163</v>
       </c>
-      <c r="B155" s="18">
+      <c r="B155" s="12">
         <v>7792</v>
       </c>
-      <c r="C155" s="18">
+      <c r="C155" s="12">
         <v>418</v>
       </c>
       <c r="D155" t="s">
         <v>111</v>
       </c>
-      <c r="E155" s="18">
+      <c r="E155" s="12">
         <v>1</v>
       </c>
-      <c r="F155" s="19">
+      <c r="F155" s="13">
         <v>0</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
-      <c r="H155" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H155" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>164</v>
       </c>
-      <c r="B156" s="18">
+      <c r="B156" s="12">
         <v>7771</v>
       </c>
-      <c r="C156" s="18">
+      <c r="C156" s="12">
         <v>220</v>
       </c>
       <c r="D156" t="s">
         <v>111</v>
       </c>
-      <c r="E156" s="18">
+      <c r="E156" s="12">
         <v>3</v>
       </c>
-      <c r="F156" s="19">
+      <c r="F156" s="13">
         <v>0</v>
       </c>
       <c r="G156">
         <v>0</v>
       </c>
-      <c r="H156" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H156" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>165</v>
       </c>
-      <c r="B157" s="18">
+      <c r="B157" s="12">
         <v>7442</v>
       </c>
-      <c r="C157" s="18">
+      <c r="C157" s="12">
         <v>241</v>
       </c>
       <c r="D157" t="s">
         <v>111</v>
       </c>
-      <c r="E157" s="18">
+      <c r="E157" s="12">
         <v>5</v>
       </c>
-      <c r="F157" s="19">
+      <c r="F157" s="13">
         <v>0</v>
       </c>
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="H157" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H157" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>166</v>
       </c>
-      <c r="B158" s="18">
+      <c r="B158" s="12">
         <v>7364</v>
       </c>
-      <c r="C158" s="18">
+      <c r="C158" s="12">
         <v>275</v>
       </c>
       <c r="D158" t="s">
         <v>111</v>
       </c>
-      <c r="E158" s="18">
+      <c r="E158" s="12">
         <v>8</v>
       </c>
-      <c r="F158" s="19">
+      <c r="F158" s="13">
         <v>0</v>
       </c>
       <c r="G158">
         <v>0</v>
       </c>
-      <c r="H158" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H158" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>167</v>
       </c>
-      <c r="B159" s="18">
+      <c r="B159" s="12">
         <v>7236</v>
       </c>
-      <c r="C159" s="18">
+      <c r="C159" s="12">
         <v>215</v>
       </c>
       <c r="D159" t="s">
         <v>111</v>
       </c>
-      <c r="E159" s="18">
+      <c r="E159" s="12">
         <v>2</v>
       </c>
-      <c r="F159" s="19">
+      <c r="F159" s="13">
         <v>0</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
-      <c r="H159" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H159" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>168</v>
       </c>
-      <c r="B160" s="18">
+      <c r="B160" s="12">
         <v>7191</v>
       </c>
-      <c r="C160" s="18">
+      <c r="C160" s="12">
         <v>1290</v>
       </c>
       <c r="D160" t="s">
         <v>111</v>
       </c>
-      <c r="E160" s="18">
+      <c r="E160" s="12">
         <v>1</v>
       </c>
-      <c r="F160" s="19">
+      <c r="F160" s="13">
         <v>0</v>
       </c>
       <c r="G160">
         <v>0</v>
       </c>
-      <c r="H160" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H160" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>169</v>
       </c>
-      <c r="B161" s="18">
+      <c r="B161" s="12">
         <v>6926</v>
       </c>
-      <c r="C161" s="18">
+      <c r="C161" s="12">
         <v>284</v>
       </c>
       <c r="D161" t="s">
         <v>111</v>
       </c>
-      <c r="E161" s="18">
+      <c r="E161" s="12">
         <v>3</v>
       </c>
-      <c r="F161" s="19">
+      <c r="F161" s="13">
         <v>0</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
-      <c r="H161" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H161" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>170</v>
       </c>
-      <c r="B162" s="18">
+      <c r="B162" s="12">
         <v>6837</v>
       </c>
-      <c r="C162" s="18">
+      <c r="C162" s="12">
         <v>454</v>
       </c>
       <c r="D162" t="s">
         <v>111</v>
       </c>
-      <c r="E162" s="18">
+      <c r="E162" s="12">
         <v>5</v>
       </c>
-      <c r="F162" s="19">
+      <c r="F162" s="13">
         <v>0</v>
       </c>
       <c r="G162">
         <v>0</v>
       </c>
-      <c r="H162" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H162" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>171</v>
       </c>
-      <c r="B163" s="18">
+      <c r="B163" s="12">
         <v>6648</v>
       </c>
-      <c r="C163" s="18">
+      <c r="C163" s="12">
         <v>91</v>
       </c>
       <c r="D163" t="s">
         <v>111</v>
       </c>
-      <c r="E163" s="18">
-        <v>0</v>
-      </c>
-      <c r="F163" s="19">
+      <c r="E163" s="12">
+        <v>0</v>
+      </c>
+      <c r="F163" s="13">
         <v>0</v>
       </c>
       <c r="G163">
         <v>0</v>
       </c>
-      <c r="H163" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H163" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>172</v>
       </c>
-      <c r="B164" s="18">
+      <c r="B164" s="12">
         <v>6586</v>
       </c>
-      <c r="C164" s="18">
+      <c r="C164" s="12">
         <v>129</v>
       </c>
       <c r="D164" t="s">
         <v>111</v>
       </c>
-      <c r="E164" s="18">
+      <c r="E164" s="12">
         <v>2</v>
       </c>
-      <c r="F164" s="19">
+      <c r="F164" s="13">
         <v>0</v>
       </c>
       <c r="G164">
         <v>0</v>
       </c>
-      <c r="H164" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H164" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>173</v>
       </c>
-      <c r="B165" s="18">
+      <c r="B165" s="12">
         <v>6533</v>
       </c>
-      <c r="C165" s="18">
+      <c r="C165" s="12">
         <v>190</v>
       </c>
       <c r="D165" t="s">
         <v>111</v>
       </c>
-      <c r="E165" s="18">
+      <c r="E165" s="12">
         <v>5</v>
       </c>
-      <c r="F165" s="19">
+      <c r="F165" s="13">
         <v>0</v>
       </c>
       <c r="G165">
         <v>0</v>
       </c>
-      <c r="H165" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H165" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>174</v>
       </c>
-      <c r="B166" s="18">
+      <c r="B166" s="12">
         <v>6514</v>
       </c>
-      <c r="C166" s="18">
+      <c r="C166" s="12">
         <v>226</v>
       </c>
       <c r="D166" t="s">
         <v>111</v>
       </c>
-      <c r="E166" s="18">
+      <c r="E166" s="12">
         <v>1</v>
       </c>
-      <c r="F166" s="19">
+      <c r="F166" s="13">
         <v>0</v>
       </c>
       <c r="G166">
         <v>0</v>
       </c>
-      <c r="H166" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H166" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>175</v>
       </c>
-      <c r="B167" s="18">
+      <c r="B167" s="12">
         <v>6478</v>
       </c>
-      <c r="C167" s="18">
+      <c r="C167" s="12">
         <v>259</v>
       </c>
       <c r="D167" t="s">
         <v>111</v>
       </c>
-      <c r="E167" s="18">
+      <c r="E167" s="12">
         <v>5</v>
       </c>
-      <c r="F167" s="19">
+      <c r="F167" s="13">
         <v>0</v>
       </c>
       <c r="G167">
         <v>0</v>
       </c>
-      <c r="H167" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H167" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>176</v>
       </c>
-      <c r="B168" s="18">
+      <c r="B168" s="12">
         <v>6367</v>
       </c>
-      <c r="C168" s="18">
+      <c r="C168" s="12">
         <v>321</v>
       </c>
       <c r="D168" t="s">
         <v>111</v>
       </c>
-      <c r="E168" s="18">
+      <c r="E168" s="12">
         <v>7</v>
       </c>
-      <c r="F168" s="19">
+      <c r="F168" s="13">
         <v>0.1111111111111111</v>
       </c>
       <c r="G168">
         <v>1</v>
       </c>
-      <c r="H168" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H168" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>177</v>
       </c>
-      <c r="B169" s="18">
+      <c r="B169" s="12">
         <v>6288</v>
       </c>
-      <c r="C169" s="18">
+      <c r="C169" s="12">
         <v>305</v>
       </c>
       <c r="D169" t="s">
         <v>111</v>
       </c>
-      <c r="E169" s="18">
+      <c r="E169" s="12">
         <v>1</v>
       </c>
-      <c r="F169" s="19">
+      <c r="F169" s="13">
         <v>0</v>
       </c>
       <c r="G169">
         <v>0</v>
       </c>
-      <c r="H169" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H169" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>178</v>
       </c>
-      <c r="B170" s="18">
+      <c r="B170" s="12">
         <v>6178</v>
       </c>
-      <c r="C170" s="18">
+      <c r="C170" s="12">
         <v>291</v>
       </c>
       <c r="D170" t="s">
         <v>111</v>
       </c>
-      <c r="E170" s="18">
+      <c r="E170" s="12">
         <v>5</v>
       </c>
-      <c r="F170" s="19">
+      <c r="F170" s="13">
         <v>0</v>
       </c>
       <c r="G170">
         <v>0</v>
       </c>
-      <c r="H170" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H170" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>179</v>
       </c>
-      <c r="B171" s="18">
+      <c r="B171" s="12">
         <v>6147</v>
       </c>
-      <c r="C171" s="18">
+      <c r="C171" s="12">
         <v>136</v>
       </c>
       <c r="D171" t="s">
         <v>111</v>
       </c>
-      <c r="E171" s="18">
+      <c r="E171" s="12">
         <v>1</v>
       </c>
-      <c r="F171" s="19">
+      <c r="F171" s="13">
         <v>0</v>
       </c>
       <c r="G171">
         <v>0</v>
       </c>
-      <c r="H171" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H171" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>180</v>
       </c>
-      <c r="B172" s="18">
+      <c r="B172" s="12">
         <v>6027</v>
       </c>
-      <c r="C172" s="18">
+      <c r="C172" s="12">
         <v>563</v>
       </c>
       <c r="D172" t="s">
         <v>111</v>
       </c>
-      <c r="E172" s="18">
+      <c r="E172" s="12">
         <v>1</v>
       </c>
-      <c r="F172" s="19">
+      <c r="F172" s="13">
         <v>0</v>
       </c>
       <c r="G172">
         <v>0</v>
       </c>
-      <c r="H172" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H172" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>181</v>
       </c>
-      <c r="B173" s="18">
+      <c r="B173" s="12">
         <v>5954</v>
       </c>
-      <c r="C173" s="18">
+      <c r="C173" s="12">
         <v>202</v>
       </c>
       <c r="D173" t="s">
         <v>111</v>
       </c>
-      <c r="E173" s="18">
+      <c r="E173" s="12">
         <v>2</v>
       </c>
-      <c r="F173" s="19">
+      <c r="F173" s="13">
         <v>0</v>
       </c>
       <c r="G173">
         <v>0</v>
       </c>
-      <c r="H173" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H173" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>182</v>
       </c>
-      <c r="B174" s="18">
+      <c r="B174" s="12">
         <v>5767</v>
       </c>
-      <c r="C174" s="18">
+      <c r="C174" s="12">
         <v>194</v>
       </c>
       <c r="D174" t="s">
         <v>111</v>
       </c>
-      <c r="E174" s="18">
+      <c r="E174" s="12">
         <v>8</v>
       </c>
-      <c r="F174" s="19">
+      <c r="F174" s="13">
         <v>0</v>
       </c>
       <c r="G174">
         <v>0</v>
       </c>
-      <c r="H174" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H174" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>183</v>
       </c>
-      <c r="B175" s="18">
+      <c r="B175" s="12">
         <v>5677</v>
       </c>
-      <c r="C175" s="18">
+      <c r="C175" s="12">
         <v>479</v>
       </c>
       <c r="D175" t="s">
         <v>111</v>
       </c>
-      <c r="E175" s="18">
+      <c r="E175" s="12">
         <v>6</v>
       </c>
-      <c r="F175" s="19">
+      <c r="F175" s="13">
         <v>0</v>
       </c>
       <c r="G175">
         <v>0</v>
       </c>
-      <c r="H175" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H175" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>184</v>
       </c>
-      <c r="B176" s="18">
+      <c r="B176" s="12">
         <v>5599</v>
       </c>
-      <c r="C176" s="18">
+      <c r="C176" s="12">
         <v>165</v>
       </c>
       <c r="D176" t="s">
         <v>111</v>
       </c>
-      <c r="E176" s="18">
+      <c r="E176" s="12">
         <v>4</v>
       </c>
-      <c r="F176" s="19">
+      <c r="F176" s="13">
         <v>0</v>
       </c>
       <c r="G176">
         <v>0</v>
       </c>
-      <c r="H176" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H176" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>185</v>
       </c>
-      <c r="B177" s="18">
+      <c r="B177" s="12">
         <v>5584</v>
       </c>
-      <c r="C177" s="18">
+      <c r="C177" s="12">
         <v>157</v>
       </c>
       <c r="D177" t="s">
         <v>111</v>
       </c>
-      <c r="E177" s="18">
+      <c r="E177" s="12">
         <v>2</v>
       </c>
-      <c r="F177" s="19">
+      <c r="F177" s="13">
         <v>0</v>
       </c>
       <c r="G177">
         <v>0</v>
       </c>
-      <c r="H177" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H177" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>186</v>
       </c>
-      <c r="B178" s="18">
+      <c r="B178" s="12">
         <v>5299</v>
       </c>
-      <c r="C178" s="18">
+      <c r="C178" s="12">
         <v>222</v>
       </c>
       <c r="D178" t="s">
         <v>111</v>
       </c>
-      <c r="E178" s="18">
+      <c r="E178" s="12">
         <v>7</v>
       </c>
-      <c r="F178" s="19">
+      <c r="F178" s="13">
         <v>0</v>
       </c>
       <c r="G178">
         <v>0</v>
       </c>
-      <c r="H178" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H178" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>187</v>
       </c>
-      <c r="B179" s="18">
+      <c r="B179" s="12">
         <v>5272</v>
       </c>
-      <c r="C179" s="18">
+      <c r="C179" s="12">
         <v>169</v>
       </c>
       <c r="D179" t="s">
         <v>111</v>
       </c>
-      <c r="E179" s="18">
+      <c r="E179" s="12">
         <v>1</v>
       </c>
-      <c r="F179" s="19">
+      <c r="F179" s="13">
         <v>0</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
-      <c r="H179" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H179" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>188</v>
       </c>
-      <c r="B180" s="18">
+      <c r="B180" s="12">
         <v>5124</v>
       </c>
-      <c r="C180" s="18">
+      <c r="C180" s="12">
         <v>194</v>
       </c>
       <c r="D180" t="s">
         <v>111</v>
       </c>
-      <c r="E180" s="18">
+      <c r="E180" s="12">
         <v>1</v>
       </c>
-      <c r="F180" s="19">
+      <c r="F180" s="13">
         <v>0</v>
       </c>
       <c r="G180">
         <v>0</v>
       </c>
-      <c r="H180" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H180" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>189</v>
       </c>
-      <c r="B181" s="18">
+      <c r="B181" s="12">
         <v>4981</v>
       </c>
-      <c r="C181" s="18">
+      <c r="C181" s="12">
         <v>214</v>
       </c>
       <c r="D181" t="s">
         <v>111</v>
       </c>
-      <c r="E181" s="18">
+      <c r="E181" s="12">
         <v>3</v>
       </c>
-      <c r="F181" s="19">
+      <c r="F181" s="13">
         <v>0</v>
       </c>
       <c r="G181">
         <v>0</v>
       </c>
-      <c r="H181" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H181" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>190</v>
       </c>
-      <c r="B182" s="18">
+      <c r="B182" s="12">
         <v>20003</v>
       </c>
-      <c r="C182" s="18">
+      <c r="C182" s="12">
         <v>332</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
-      <c r="E182" s="18">
-        <v>0</v>
-      </c>
-      <c r="F182" s="19">
+      <c r="E182" s="12">
+        <v>0</v>
+      </c>
+      <c r="F182" s="13">
         <v>0</v>
       </c>
       <c r="G182">
         <v>0</v>
       </c>
-      <c r="H182" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H182" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>191</v>
       </c>
-      <c r="B183" s="18">
+      <c r="B183" s="12">
         <v>16993</v>
       </c>
-      <c r="C183" s="18">
+      <c r="C183" s="12">
         <v>252</v>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
-      <c r="E183" s="18">
-        <v>0</v>
-      </c>
-      <c r="F183" s="19">
+      <c r="E183" s="12">
+        <v>0</v>
+      </c>
+      <c r="F183" s="13">
         <v>0</v>
       </c>
       <c r="G183">
         <v>0</v>
       </c>
-      <c r="H183" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H183" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>192</v>
       </c>
-      <c r="B184" s="18">
+      <c r="B184" s="12">
         <v>16614</v>
       </c>
-      <c r="C184" s="18">
+      <c r="C184" s="12">
         <v>222</v>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
-      <c r="E184" s="18">
-        <v>0</v>
-      </c>
-      <c r="F184" s="19">
+      <c r="E184" s="12">
+        <v>0</v>
+      </c>
+      <c r="F184" s="13">
         <v>0</v>
       </c>
       <c r="G184">
         <v>0</v>
       </c>
-      <c r="H184" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H184" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>193</v>
       </c>
-      <c r="B185" s="18">
+      <c r="B185" s="12">
         <v>14398</v>
       </c>
-      <c r="C185" s="18">
+      <c r="C185" s="12">
         <v>263</v>
       </c>
       <c r="D185">
         <v>0</v>
       </c>
-      <c r="E185" s="18">
-        <v>0</v>
-      </c>
-      <c r="F185" s="19">
+      <c r="E185" s="12">
+        <v>0</v>
+      </c>
+      <c r="F185" s="13">
         <v>0</v>
       </c>
       <c r="G185">
         <v>0</v>
       </c>
-      <c r="H185" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H185" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>194</v>
       </c>
-      <c r="B186" s="18">
+      <c r="B186" s="12">
         <v>13062</v>
       </c>
-      <c r="C186" s="18">
+      <c r="C186" s="12">
         <v>315</v>
       </c>
       <c r="D186">
         <v>0</v>
       </c>
-      <c r="E186" s="18">
-        <v>0</v>
-      </c>
-      <c r="F186" s="19">
+      <c r="E186" s="12">
+        <v>0</v>
+      </c>
+      <c r="F186" s="13">
         <v>0</v>
       </c>
       <c r="G186">
         <v>0</v>
       </c>
-      <c r="H186" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H186" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>195</v>
       </c>
-      <c r="B187" s="18">
+      <c r="B187" s="12">
         <v>11757</v>
       </c>
-      <c r="C187" s="18">
+      <c r="C187" s="12">
         <v>207</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
-      <c r="E187" s="18">
-        <v>0</v>
-      </c>
-      <c r="F187" s="19">
+      <c r="E187" s="12">
+        <v>0</v>
+      </c>
+      <c r="F187" s="13">
         <v>0</v>
       </c>
       <c r="G187">
         <v>0</v>
       </c>
-      <c r="H187" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H187" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>196</v>
       </c>
-      <c r="B188" s="18">
+      <c r="B188" s="12">
         <v>10310</v>
       </c>
-      <c r="C188" s="18">
+      <c r="C188" s="12">
         <v>118</v>
       </c>
       <c r="D188">
         <v>0</v>
       </c>
-      <c r="E188" s="18">
-        <v>0</v>
-      </c>
-      <c r="F188" s="19">
+      <c r="E188" s="12">
+        <v>0</v>
+      </c>
+      <c r="F188" s="13">
         <v>0</v>
       </c>
       <c r="G188">
         <v>0</v>
       </c>
-      <c r="H188" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H188" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>197</v>
       </c>
-      <c r="B189" s="18">
+      <c r="B189" s="12">
         <v>10149</v>
       </c>
-      <c r="C189" s="18">
+      <c r="C189" s="12">
         <v>45</v>
       </c>
       <c r="D189">
         <v>0</v>
       </c>
-      <c r="E189" s="18">
-        <v>0</v>
-      </c>
-      <c r="F189" s="19">
+      <c r="E189" s="12">
+        <v>0</v>
+      </c>
+      <c r="F189" s="13">
         <v>0</v>
       </c>
       <c r="G189">
         <v>0</v>
       </c>
-      <c r="H189" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H189" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>198</v>
       </c>
-      <c r="B190" s="18">
+      <c r="B190" s="12">
         <v>9696</v>
       </c>
-      <c r="C190" s="18">
+      <c r="C190" s="12">
         <v>58</v>
       </c>
       <c r="D190">
         <v>0</v>
       </c>
-      <c r="E190" s="18">
-        <v>0</v>
-      </c>
-      <c r="F190" s="19">
+      <c r="E190" s="12">
+        <v>0</v>
+      </c>
+      <c r="F190" s="13">
         <v>0</v>
       </c>
       <c r="G190">
         <v>0</v>
       </c>
-      <c r="H190" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H190" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>199</v>
       </c>
-      <c r="B191" s="18">
+      <c r="B191" s="12">
         <v>8649</v>
       </c>
-      <c r="C191" s="18">
+      <c r="C191" s="12">
         <v>108</v>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
-      <c r="E191" s="18">
-        <v>0</v>
-      </c>
-      <c r="F191" s="19">
+      <c r="E191" s="12">
+        <v>0</v>
+      </c>
+      <c r="F191" s="13">
         <v>0</v>
       </c>
       <c r="G191">
         <v>0</v>
       </c>
-      <c r="H191" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H191" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>200</v>
       </c>
-      <c r="B192" s="18">
+      <c r="B192" s="12">
         <v>8550</v>
       </c>
-      <c r="C192" s="18">
+      <c r="C192" s="12">
         <v>196</v>
       </c>
       <c r="D192">
         <v>0</v>
       </c>
-      <c r="E192" s="18">
-        <v>0</v>
-      </c>
-      <c r="F192" s="19">
+      <c r="E192" s="12">
+        <v>0</v>
+      </c>
+      <c r="F192" s="13">
         <v>0</v>
       </c>
       <c r="G192">
         <v>0</v>
       </c>
-      <c r="H192" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H192" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>201</v>
       </c>
-      <c r="B193" s="18">
+      <c r="B193" s="12">
         <v>8385</v>
       </c>
-      <c r="C193" s="18">
+      <c r="C193" s="12">
         <v>114</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
-      <c r="E193" s="18">
-        <v>0</v>
-      </c>
-      <c r="F193" s="19">
+      <c r="E193" s="12">
+        <v>0</v>
+      </c>
+      <c r="F193" s="13">
         <v>0</v>
       </c>
       <c r="G193">
         <v>0</v>
       </c>
-      <c r="H193" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H193" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>202</v>
       </c>
-      <c r="B194" s="18">
+      <c r="B194" s="12">
         <v>6235</v>
       </c>
-      <c r="C194" s="18">
+      <c r="C194" s="12">
         <v>30</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
-      <c r="E194" s="18">
-        <v>0</v>
-      </c>
-      <c r="F194" s="19">
+      <c r="E194" s="12">
+        <v>0</v>
+      </c>
+      <c r="F194" s="13">
         <v>0</v>
       </c>
       <c r="G194">
         <v>0</v>
       </c>
-      <c r="H194" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H194" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>203</v>
       </c>
-      <c r="B195" s="18">
+      <c r="B195" s="12">
         <v>5780</v>
       </c>
-      <c r="C195" s="18">
+      <c r="C195" s="12">
         <v>64</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
-      <c r="E195" s="18">
-        <v>0</v>
-      </c>
-      <c r="F195" s="19">
+      <c r="E195" s="12">
+        <v>0</v>
+      </c>
+      <c r="F195" s="13">
         <v>0</v>
       </c>
       <c r="G195">
         <v>0</v>
       </c>
-      <c r="H195" s="18">
+      <c r="H195" s="12">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A5:H195" xr:uid="{D1D2E8F5-570F-0940-9CF6-0DF17001F917}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:H195">
+      <sortCondition descending="1" ref="H5:H195"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:I1"/>
@@ -6367,1414 +6385,1415 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:K3"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
+      <c r="A1" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="4" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" ht="91" thickBot="1">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14">
+    <row r="3" spans="1:11" ht="19" thickBot="1">
+      <c r="A3" s="8">
         <v>17176</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="8">
         <v>480</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="8">
         <v>11</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="8">
         <v>7</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="9">
         <v>23.288309268747089</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="14">
+      <c r="F3" s="3"/>
+      <c r="G3" s="8">
         <v>416627</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="8">
         <v>9847</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="8">
         <v>153</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="8">
         <v>100</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="9">
         <v>12.721211059292845</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:11" ht="47" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1"/>
+    <row r="5" spans="1:11" ht="49" thickBot="1">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>206</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="12">
         <v>9055</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="12">
         <v>316</v>
       </c>
       <c r="D6">
         <v>21</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="12">
         <v>12</v>
       </c>
-      <c r="F6" s="20">
-        <v>0</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="18">
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
         <v>99.392600773053559</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="12">
         <v>12797</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="12">
         <v>869</v>
       </c>
       <c r="D7">
         <v>60</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="12">
         <v>48</v>
       </c>
-      <c r="F7" s="20">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18">
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
         <v>93.771977807298583</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>208</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="12">
         <v>14844</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="12">
         <v>1069</v>
       </c>
       <c r="D8">
         <v>82</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="12">
         <v>69</v>
       </c>
-      <c r="F8" s="20">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18">
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
         <v>87.577472379412555</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>209</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="12">
         <v>9359</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="12">
         <v>506</v>
       </c>
       <c r="D9">
         <v>30</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="12">
         <v>22</v>
       </c>
-      <c r="F9" s="20">
-        <v>0</v>
-      </c>
-      <c r="G9" s="18">
-        <v>0</v>
-      </c>
-      <c r="H9" s="18">
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
         <v>85.479217865156542</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="12">
         <v>23359</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="12">
         <v>1148</v>
       </c>
       <c r="D10">
         <v>62</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="12">
         <v>45</v>
       </c>
-      <c r="F10" s="20">
-        <v>0</v>
-      </c>
-      <c r="G10" s="18">
-        <v>0</v>
-      </c>
-      <c r="H10" s="18">
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
         <v>72.777088060276554</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>211</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="12">
         <v>66810</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="12">
         <v>2952</v>
       </c>
       <c r="D11">
         <v>171</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="12">
         <v>131</v>
       </c>
-      <c r="F11" s="20">
-        <v>0</v>
-      </c>
-      <c r="G11" s="18">
-        <v>0</v>
-      </c>
-      <c r="H11" s="18">
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
         <v>59.871276754976805</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>212</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="12">
         <v>16939</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="12">
         <v>519</v>
       </c>
       <c r="D12">
         <v>25</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="12">
         <v>16</v>
       </c>
-      <c r="F12" s="20">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18">
-        <v>0</v>
-      </c>
-      <c r="H12" s="18">
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
         <v>53.131825963752284</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>213</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="12">
         <v>10681</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="12">
         <v>381</v>
       </c>
       <c r="D13">
         <v>19</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="12">
         <v>14</v>
       </c>
-      <c r="F13" s="20">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0</v>
-      </c>
-      <c r="H13" s="18">
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
         <v>46.812096245669878</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>214</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="12">
         <v>14745</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="12">
         <v>488</v>
       </c>
       <c r="D14">
         <v>25</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="12">
         <v>19</v>
       </c>
-      <c r="F14" s="20">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
-        <v>0</v>
-      </c>
-      <c r="H14" s="18">
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
         <v>40.691759918616476</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>215</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="12">
         <v>43420</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="12">
         <v>1431</v>
       </c>
       <c r="D15">
         <v>62</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="12">
         <v>45</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="14">
         <v>5.0847457627118647E-2</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="12">
         <v>3</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="12">
         <v>39.152464302164901</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>216</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="12">
         <v>20925</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="12">
         <v>734</v>
       </c>
       <c r="D16">
         <v>20</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="12">
         <v>12</v>
       </c>
-      <c r="F16" s="20">
-        <v>0</v>
-      </c>
-      <c r="G16" s="18">
-        <v>0</v>
-      </c>
-      <c r="H16" s="18">
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
         <v>38.231780167264041</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="12">
         <v>51529</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="12">
         <v>2837</v>
       </c>
       <c r="D17">
         <v>50</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="12">
         <v>32</v>
       </c>
-      <c r="F17" s="20">
-        <v>0</v>
-      </c>
-      <c r="G17" s="18">
-        <v>0</v>
-      </c>
-      <c r="H17" s="18">
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
         <v>34.931785984591201</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="12">
         <v>11754</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="12">
         <v>507</v>
       </c>
       <c r="D18">
         <v>20</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="12">
         <v>17</v>
       </c>
-      <c r="F18" s="20">
-        <v>0</v>
-      </c>
-      <c r="G18" s="18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="18">
+      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
         <v>25.523226135783563</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>219</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="12">
         <v>37143</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="12">
         <v>1151</v>
       </c>
       <c r="D19">
         <v>22</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="12">
         <v>15</v>
       </c>
-      <c r="F19" s="20">
-        <v>0</v>
-      </c>
-      <c r="G19" s="18">
-        <v>0</v>
-      </c>
-      <c r="H19" s="18">
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
         <v>18.846081361225533</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>220</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="12">
         <v>16895</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="12">
         <v>573</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="12">
         <v>16</v>
       </c>
-      <c r="F20" s="20">
-        <v>0</v>
-      </c>
-      <c r="G20" s="18">
-        <v>0</v>
-      </c>
-      <c r="H20" s="18">
+      <c r="F20" s="14">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12">
         <v>17.756732761171943</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>221</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="12">
         <v>30459</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="12">
         <v>1044</v>
       </c>
       <c r="D21">
         <v>36</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="12">
         <v>31</v>
       </c>
-      <c r="F21" s="20">
-        <v>0</v>
-      </c>
-      <c r="G21" s="18">
-        <v>0</v>
-      </c>
-      <c r="H21" s="18">
+      <c r="F21" s="14">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
         <v>16.415509373255851</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>222</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="12">
         <v>21072</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="12">
         <v>734</v>
       </c>
       <c r="D22">
         <v>17</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="12">
         <v>14</v>
       </c>
-      <c r="F22" s="20">
-        <v>0</v>
-      </c>
-      <c r="G22" s="18">
-        <v>0</v>
-      </c>
-      <c r="H22" s="18">
+      <c r="F22" s="14">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
         <v>14.236902050113894</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>223</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="12">
         <v>28645</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="12">
         <v>779</v>
       </c>
       <c r="D23">
         <v>16</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="12">
         <v>12</v>
       </c>
-      <c r="F23" s="20">
-        <v>0</v>
-      </c>
-      <c r="G23" s="18">
-        <v>0</v>
-      </c>
-      <c r="H23" s="18">
+      <c r="F23" s="14">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
         <v>13.9640425903299</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>224</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="12">
         <v>21541</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="12">
         <v>572</v>
       </c>
       <c r="D24">
         <v>18</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="12">
         <v>15</v>
       </c>
-      <c r="F24" s="20">
-        <v>0</v>
-      </c>
-      <c r="G24" s="18">
-        <v>0</v>
-      </c>
-      <c r="H24" s="18">
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12">
         <v>13.926930040388097</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>225</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="12">
         <v>37647</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="12">
         <v>1033</v>
       </c>
       <c r="D25">
         <v>29</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="12">
         <v>25</v>
       </c>
-      <c r="F25" s="20">
-        <v>0</v>
-      </c>
-      <c r="G25" s="18">
-        <v>0</v>
-      </c>
-      <c r="H25" s="18">
+      <c r="F25" s="14">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12">
         <v>10.62501660158844</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>226</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="12">
         <v>58845</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="12">
         <v>322</v>
       </c>
       <c r="D26" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="18">
-        <v>0</v>
-      </c>
-      <c r="F26" s="20">
-        <v>0</v>
-      </c>
-      <c r="G26" s="18">
-        <v>0</v>
-      </c>
-      <c r="H26" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="12">
         <v>29809</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="12">
         <v>773</v>
       </c>
       <c r="D27" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="12">
         <v>6</v>
       </c>
-      <c r="F27" s="20">
-        <v>0</v>
-      </c>
-      <c r="G27" s="18">
-        <v>0</v>
-      </c>
-      <c r="H27" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F27" s="14">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
+      <c r="H27" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>228</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="12">
         <v>28148</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="12">
         <v>791</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="12">
         <v>5</v>
       </c>
-      <c r="F28" s="20">
-        <v>0</v>
-      </c>
-      <c r="G28" s="18">
-        <v>0</v>
-      </c>
-      <c r="H28" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F28" s="14">
+        <v>0</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0</v>
+      </c>
+      <c r="H28" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>229</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="12">
         <v>27895</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="12">
         <v>649</v>
       </c>
       <c r="D29" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="12">
         <v>8</v>
       </c>
-      <c r="F29" s="20">
-        <v>0</v>
-      </c>
-      <c r="G29" s="18">
-        <v>0</v>
-      </c>
-      <c r="H29" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F29" s="14">
+        <v>0</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0</v>
+      </c>
+      <c r="H29" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>230</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="12">
         <v>25890</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="12">
         <v>761</v>
       </c>
       <c r="D30" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="12">
         <v>5</v>
       </c>
-      <c r="F30" s="20">
-        <v>0</v>
-      </c>
-      <c r="G30" s="18">
-        <v>0</v>
-      </c>
-      <c r="H30" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F30" s="14">
+        <v>0</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0</v>
+      </c>
+      <c r="H30" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="12">
         <v>25372</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="12">
         <v>226</v>
       </c>
       <c r="D31" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="18">
-        <v>0</v>
-      </c>
-      <c r="F31" s="20">
+      <c r="E31" s="12">
+        <v>0</v>
+      </c>
+      <c r="F31" s="14">
         <v>1</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="12">
         <v>10</v>
       </c>
-      <c r="H31" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H31" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>232</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="12">
         <v>17472</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="12">
         <v>1024</v>
       </c>
       <c r="D32" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="12">
         <v>3</v>
       </c>
-      <c r="F32" s="20">
-        <v>0</v>
-      </c>
-      <c r="G32" s="18">
-        <v>0</v>
-      </c>
-      <c r="H32" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F32" s="14">
+        <v>0</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0</v>
+      </c>
+      <c r="H32" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>233</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="12">
         <v>16900</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="12">
         <v>396</v>
       </c>
       <c r="D33" t="s">
         <v>111</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="12">
         <v>3</v>
       </c>
-      <c r="F33" s="20">
-        <v>0</v>
-      </c>
-      <c r="G33" s="18">
-        <v>0</v>
-      </c>
-      <c r="H33" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F33" s="14">
+        <v>0</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0</v>
+      </c>
+      <c r="H33" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>234</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="12">
         <v>13717</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="12">
         <v>264</v>
       </c>
       <c r="D34" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="12">
         <v>4</v>
       </c>
-      <c r="F34" s="20">
-        <v>0</v>
-      </c>
-      <c r="G34" s="18">
-        <v>0</v>
-      </c>
-      <c r="H34" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F34" s="14">
+        <v>0</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0</v>
+      </c>
+      <c r="H34" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>235</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="12">
         <v>13073</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="12">
         <v>358</v>
       </c>
       <c r="D35" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="12">
         <v>9</v>
       </c>
-      <c r="F35" s="20">
-        <v>0</v>
-      </c>
-      <c r="G35" s="18">
-        <v>0</v>
-      </c>
-      <c r="H35" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F35" s="14">
+        <v>0</v>
+      </c>
+      <c r="G35" s="12">
+        <v>0</v>
+      </c>
+      <c r="H35" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>236</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="12">
         <v>12871</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="12">
         <v>254</v>
       </c>
       <c r="D36" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="12">
         <v>3</v>
       </c>
-      <c r="F36" s="20">
-        <v>0</v>
-      </c>
-      <c r="G36" s="18">
-        <v>0</v>
-      </c>
-      <c r="H36" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F36" s="14">
+        <v>0</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
+      <c r="H36" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>237</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="12">
         <v>12278</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="12">
         <v>567</v>
       </c>
       <c r="D37" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="12">
         <v>3</v>
       </c>
-      <c r="F37" s="20">
-        <v>0</v>
-      </c>
-      <c r="G37" s="18">
-        <v>0</v>
-      </c>
-      <c r="H37" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F37" s="14">
+        <v>0</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0</v>
+      </c>
+      <c r="H37" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>238</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="12">
         <v>11853</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="12">
         <v>111</v>
       </c>
       <c r="D38" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="12">
         <v>1</v>
       </c>
-      <c r="F38" s="20">
-        <v>0</v>
-      </c>
-      <c r="G38" s="18">
-        <v>0</v>
-      </c>
-      <c r="H38" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F38" s="14">
+        <v>0</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0</v>
+      </c>
+      <c r="H38" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>239</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="12">
         <v>11564</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="12">
         <v>362</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="12">
         <v>9</v>
       </c>
-      <c r="F39" s="20">
-        <v>0</v>
-      </c>
-      <c r="G39" s="18">
-        <v>0</v>
-      </c>
-      <c r="H39" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F39" s="14">
+        <v>0</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0</v>
+      </c>
+      <c r="H39" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>240</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="12">
         <v>11163</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="12">
         <v>327</v>
       </c>
       <c r="D40" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="12">
         <v>8</v>
       </c>
-      <c r="F40" s="20">
-        <v>0</v>
-      </c>
-      <c r="G40" s="18">
-        <v>0</v>
-      </c>
-      <c r="H40" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F40" s="14">
+        <v>0</v>
+      </c>
+      <c r="G40" s="12">
+        <v>0</v>
+      </c>
+      <c r="H40" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>241</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="12">
         <v>10506</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="12">
         <v>252</v>
       </c>
       <c r="D41" t="s">
         <v>111</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="12">
         <v>4</v>
       </c>
-      <c r="F41" s="20">
-        <v>0</v>
-      </c>
-      <c r="G41" s="18">
-        <v>0</v>
-      </c>
-      <c r="H41" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F41" s="14">
+        <v>0</v>
+      </c>
+      <c r="G41" s="12">
+        <v>0</v>
+      </c>
+      <c r="H41" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>242</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="12">
         <v>10205</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="12">
         <v>387</v>
       </c>
       <c r="D42" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="12">
         <v>7</v>
       </c>
-      <c r="F42" s="20">
-        <v>0</v>
-      </c>
-      <c r="G42" s="18">
-        <v>0</v>
-      </c>
-      <c r="H42" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F42" s="14">
+        <v>0</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0</v>
+      </c>
+      <c r="H42" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>243</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="12">
         <v>9799</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="12">
         <v>313</v>
       </c>
       <c r="D43" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="12">
         <v>4</v>
       </c>
-      <c r="F43" s="20">
-        <v>0</v>
-      </c>
-      <c r="G43" s="18">
-        <v>0</v>
-      </c>
-      <c r="H43" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F43" s="14">
+        <v>0</v>
+      </c>
+      <c r="G43" s="12">
+        <v>0</v>
+      </c>
+      <c r="H43" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>244</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="12">
         <v>8293</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="12">
         <v>193</v>
       </c>
       <c r="D44" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="18">
-        <v>0</v>
-      </c>
-      <c r="F44" s="20">
-        <v>0</v>
-      </c>
-      <c r="G44" s="18">
-        <v>0</v>
-      </c>
-      <c r="H44" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E44" s="12">
+        <v>0</v>
+      </c>
+      <c r="F44" s="14">
+        <v>0</v>
+      </c>
+      <c r="G44" s="12">
+        <v>0</v>
+      </c>
+      <c r="H44" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>245</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="12">
         <v>8194</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="12">
         <v>225</v>
       </c>
       <c r="D45" t="s">
         <v>111</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="12">
         <v>3</v>
       </c>
-      <c r="F45" s="20">
-        <v>0</v>
-      </c>
-      <c r="G45" s="18">
-        <v>0</v>
-      </c>
-      <c r="H45" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F45" s="14">
+        <v>0</v>
+      </c>
+      <c r="G45" s="12">
+        <v>0</v>
+      </c>
+      <c r="H45" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>246</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="12">
         <v>8099</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="12">
         <v>128</v>
       </c>
       <c r="D46" t="s">
         <v>111</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="12">
         <v>1</v>
       </c>
-      <c r="F46" s="20">
-        <v>0</v>
-      </c>
-      <c r="G46" s="18">
-        <v>0</v>
-      </c>
-      <c r="H46" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F46" s="14">
+        <v>0</v>
+      </c>
+      <c r="G46" s="12">
+        <v>0</v>
+      </c>
+      <c r="H46" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>247</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="12">
         <v>7428</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="12">
         <v>169</v>
       </c>
       <c r="D47" t="s">
         <v>111</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="12">
         <v>1</v>
       </c>
-      <c r="F47" s="20">
-        <v>0</v>
-      </c>
-      <c r="G47" s="18">
-        <v>0</v>
-      </c>
-      <c r="H47" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F47" s="14">
+        <v>0</v>
+      </c>
+      <c r="G47" s="12">
+        <v>0</v>
+      </c>
+      <c r="H47" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>248</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="12">
         <v>7332</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="12">
         <v>165</v>
       </c>
       <c r="D48" t="s">
         <v>111</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="12">
         <v>2</v>
       </c>
-      <c r="F48" s="20">
-        <v>0</v>
-      </c>
-      <c r="G48" s="18">
-        <v>0</v>
-      </c>
-      <c r="H48" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F48" s="14">
+        <v>0</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0</v>
+      </c>
+      <c r="H48" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>249</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="12">
         <v>6984</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="12">
         <v>163</v>
       </c>
       <c r="D49" t="s">
         <v>111</v>
       </c>
-      <c r="E49" s="18">
-        <v>0</v>
-      </c>
-      <c r="F49" s="20">
-        <v>0</v>
-      </c>
-      <c r="G49" s="18">
-        <v>0</v>
-      </c>
-      <c r="H49" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E49" s="12">
+        <v>0</v>
+      </c>
+      <c r="F49" s="14">
+        <v>0</v>
+      </c>
+      <c r="G49" s="12">
+        <v>0</v>
+      </c>
+      <c r="H49" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>250</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="12">
         <v>6557</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="12">
         <v>124</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="12">
         <v>2</v>
       </c>
-      <c r="F50" s="20">
-        <v>0</v>
-      </c>
-      <c r="G50" s="18">
-        <v>0</v>
-      </c>
-      <c r="H50" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F50" s="14">
+        <v>0</v>
+      </c>
+      <c r="G50" s="12">
+        <v>0</v>
+      </c>
+      <c r="H50" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>251</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B51" s="12">
         <v>5522</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="12">
         <v>275</v>
       </c>
       <c r="D51" t="s">
         <v>111</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="12">
         <v>7</v>
       </c>
-      <c r="F51" s="20">
-        <v>0</v>
-      </c>
-      <c r="G51" s="18">
-        <v>0</v>
-      </c>
-      <c r="H51" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F51" s="14">
+        <v>0</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0</v>
+      </c>
+      <c r="H51" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>252</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="12">
         <v>5428</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="12">
         <v>174</v>
       </c>
       <c r="D52" t="s">
         <v>111</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="12">
         <v>1</v>
       </c>
-      <c r="F52" s="20">
-        <v>0</v>
-      </c>
-      <c r="G52" s="18">
-        <v>0</v>
-      </c>
-      <c r="H52" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F52" s="14">
+        <v>0</v>
+      </c>
+      <c r="G52" s="12">
+        <v>0</v>
+      </c>
+      <c r="H52" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>253</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="12">
         <v>5430</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="12">
         <v>94</v>
       </c>
       <c r="D53" t="s">
         <v>111</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="12">
         <v>1</v>
       </c>
-      <c r="F53" s="20">
-        <v>0</v>
-      </c>
-      <c r="G53" s="18">
-        <v>0</v>
-      </c>
-      <c r="H53" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F53" s="14">
+        <v>0</v>
+      </c>
+      <c r="G53" s="12">
+        <v>0</v>
+      </c>
+      <c r="H53" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>254</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="12">
         <v>11107</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="12">
         <v>195</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
-      <c r="E54" s="18">
-        <v>0</v>
-      </c>
-      <c r="F54" s="20">
-        <v>0</v>
-      </c>
-      <c r="G54" s="18">
-        <v>0</v>
-      </c>
-      <c r="H54" s="18">
+      <c r="E54" s="12">
+        <v>0</v>
+      </c>
+      <c r="F54" s="14">
+        <v>0</v>
+      </c>
+      <c r="G54" s="12">
+        <v>0</v>
+      </c>
+      <c r="H54" s="12">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A5:H54" xr:uid="{E7C66666-0BE4-B84E-8ED0-EDE49F007FFA}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
